--- a/Magisterka/useful.xlsx
+++ b/Magisterka/useful.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="19368" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="19368" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>Związki organiczne</t>
   </si>
@@ -158,7 +158,28 @@
     <t>GR7</t>
   </si>
   <si>
-    <t>Odchylenie standardowe</t>
+    <t>Warunki</t>
+  </si>
+  <si>
+    <t>Niepewność [dni]</t>
+  </si>
+  <si>
+    <t>Czas całkowitej degradacji [h]</t>
+  </si>
+  <si>
+    <t>Niepewność [h]</t>
+  </si>
+  <si>
+    <t>Czas całkowitej degradacji [dni]</t>
+  </si>
+  <si>
+    <t>Czas inkubacji</t>
+  </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Długość fali [nm]</t>
   </si>
 </sst>
 </file>
@@ -195,8 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,6 +251,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -319,7 +342,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$13</c:f>
+              <c:f>Sheet1!$G$6:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -355,7 +378,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$13</c:f>
+              <c:f>Sheet1!$H$6:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -399,11 +422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50433328"/>
-        <c:axId val="50434960"/>
+        <c:axId val="34341360"/>
+        <c:axId val="34342448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50433328"/>
+        <c:axId val="34341360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,6 +447,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -490,12 +514,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50434960"/>
+        <c:crossAx val="34342448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50434960"/>
+        <c:axId val="34342448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,6 +540,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -582,7 +607,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50433328"/>
+        <c:crossAx val="34341360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -739,7 +764,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$5:$M$13</c:f>
+              <c:f>Sheet1!$M$6:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -775,7 +800,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$N$12</c:f>
+              <c:f>Sheet1!$N$6:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -885,7 +910,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$M$11</c:f>
+              <c:f>Sheet1!$M$8:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -909,7 +934,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$7:$K$11</c:f>
+              <c:f>Sheet1!$K$8:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1010,7 +1035,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$M$11:$M$13</c:f>
+              <c:f>Sheet1!$M$12:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1028,7 +1053,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$11:$K$13</c:f>
+              <c:f>Sheet1!$K$12:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1054,11 +1079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50439312"/>
-        <c:axId val="2017004064"/>
+        <c:axId val="34344624"/>
+        <c:axId val="34345712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50439312"/>
+        <c:axId val="34344624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,12 +1196,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2017004064"/>
+        <c:crossAx val="34345712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2017004064"/>
+        <c:axId val="34345712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1314,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50439312"/>
+        <c:crossAx val="34344624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1410,6 +1435,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1625,12 +1651,14 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$48:$C$54</c:f>
+              <c:f>Sheet1!$C$49:$C$55</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1659,7 +1687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$48:$D$54</c:f>
+              <c:f>Sheet1!$D$49:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1725,6 +1753,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1754,6 +1783,481 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$60:$C$74</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>5.857499999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.168515497553017</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.415776119402981</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.399122165325531</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.3986024662360537</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12.542667436489609</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.44</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.62541144414168937</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12.106431302001349</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>12.128720956981828</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11.251263653887344</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>13.268362378267554</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>12.140821059955933</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.5515323824209712</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8.9974414062499992</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$61:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Fizjologicznie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W 0,05M NaOH</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HA 0,05M NaOH</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BW 0,05M NaOH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W 1MNaOH</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HA 1MNaOH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BW 1MNaOH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GR1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GR2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GR3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GR4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>GR5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>GR6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GR7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>137.89559543230015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.23432835820893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.6283833211412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.169113329418671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.02424942263281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6855585831062667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110.05846638183044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.2610996089257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.28421503533949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.62147616606867</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110.37110054505393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.832112567463369</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.794921875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1819263648"/>
+        <c:axId val="1819264192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1819263648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819264192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819264192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819263648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1911,6 +2415,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3437,6 +3981,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3475,13 +4522,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3505,13 +4552,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3535,13 +4582,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3556,6 +4603,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3827,863 +4904,1370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U17" sqref="R1:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1072.5</v>
-      </c>
-      <c r="B1">
-        <v>829.5</v>
-      </c>
       <c r="R1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1">
-        <v>638</v>
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1072.5</v>
+      </c>
+      <c r="B2">
+        <v>829.5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R3" t="s">
         <v>12</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3">
-        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
         <v>10</v>
       </c>
-      <c r="T4">
+      <c r="T5">
         <v>638</v>
       </c>
-      <c r="U4">
+      <c r="U5">
         <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1072.5</v>
-      </c>
-      <c r="B5">
-        <v>397.5</v>
-      </c>
-      <c r="D5">
-        <f>A5-$A$1</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>$B$1-B5</f>
-        <v>432</v>
-      </c>
-      <c r="G5">
-        <f>8*D5/$D$13</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>E5*32.5/$E$6</f>
-        <v>30.38961038961039</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f>H5*100/$H$5</f>
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <f>J5*7</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="R5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5">
-        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1120.5</v>
+        <v>1072.5</v>
       </c>
       <c r="B6">
-        <v>367.5</v>
+        <v>397.5</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D13" si="0">A6-$A$1</f>
-        <v>48</v>
+        <f>A6-$A$2</f>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="1">$B$1-B6</f>
-        <v>462</v>
+        <f>$B$2-B6</f>
+        <v>432</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G13" si="2">8*D6/$D$13</f>
-        <v>0.88275862068965516</v>
+        <f>8*D6/$D$14</f>
+        <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H13" si="3">E6*32.5/$E$6</f>
-        <v>32.5</v>
+        <f>E6*32.5/$E$7</f>
+        <v>30.38961038961039</v>
       </c>
       <c r="J6">
-        <v>0.88275862068965516</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K13" si="4">H6*100/$H$5</f>
-        <v>106.94444444444444</v>
+        <f>H6*100/$H$6</f>
+        <v>100</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M13" si="5">J6*7</f>
-        <v>6.1793103448275861</v>
+        <f>J6*7</f>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>106.94444444444444</v>
+        <v>100</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
       </c>
       <c r="S6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T6">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>1120.5</v>
+      </c>
+      <c r="B7">
+        <v>367.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D14" si="0">A7-$A$2</f>
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E14" si="1">$B$2-B7</f>
+        <v>462</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G14" si="2">8*D7/$D$14</f>
+        <v>0.88275862068965516</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H14" si="3">E7*32.5/$E$7</f>
+        <v>32.5</v>
+      </c>
+      <c r="J7">
+        <v>0.88275862068965516</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K14" si="4">H7*100/$H$6</f>
+        <v>106.94444444444444</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M14" si="5">J7*7</f>
+        <v>6.1793103448275861</v>
+      </c>
+      <c r="N7">
+        <v>106.94444444444444</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1143</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>388.5</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>1.296551724137931</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <f t="shared" si="3"/>
         <v>31.022727272727273</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>1.296551724137931</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <f t="shared" si="4"/>
         <v>102.08333333333334</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <f t="shared" si="5"/>
         <v>9.0758620689655167</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>102.08333333333334</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S8" t="s">
         <v>16</v>
       </c>
-      <c r="T7">
+      <c r="T8">
         <v>628</v>
       </c>
-      <c r="U7">
+      <c r="U8">
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1191</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>469.5</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>118.5</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>2.1793103448275861</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <f t="shared" si="3"/>
         <v>25.324675324675326</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>2.1793103448275861</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <f t="shared" si="4"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <f t="shared" si="5"/>
         <v>15.255172413793103</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>83.333333333333343</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R9" t="s">
         <v>18</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S9" t="s">
         <v>17</v>
       </c>
-      <c r="T8">
+      <c r="T9">
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1237.5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>531</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>298.5</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>3.0344827586206895</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f t="shared" si="3"/>
         <v>20.998376623376622</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>3.0344827586206895</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <f t="shared" si="4"/>
         <v>69.097222222222214</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <f t="shared" si="5"/>
         <v>21.241379310344826</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>69.097222222222214</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R10" t="s">
         <v>19</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S10" t="s">
         <v>20</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>620</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1291</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>598.5</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>218.5</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>4.0183908045977015</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <f t="shared" si="3"/>
         <v>16.25</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>4.0183908045977015</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <f t="shared" si="4"/>
         <v>53.472222222222221</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <f t="shared" si="5"/>
         <v>28.128735632183911</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>53.472222222222221</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S11" t="s">
         <v>21</v>
       </c>
-      <c r="T10">
+      <c r="T11">
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1344</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>639</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>271.5</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>190.5</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>4.9931034482758623</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <f t="shared" si="3"/>
         <v>13.400974025974026</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>4.9931034482758623</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <f t="shared" si="4"/>
         <v>44.097222222222221</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <f t="shared" si="5"/>
         <v>34.951724137931038</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>44.097222222222221</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S12" t="s">
         <v>22</v>
       </c>
-      <c r="T11">
+      <c r="T12">
         <v>620</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1423.5</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>657</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>351</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>172.5</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>6.455172413793103</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <f t="shared" si="3"/>
         <v>12.13474025974026</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>6.455172413793103</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <f t="shared" si="4"/>
         <v>39.930555555555557</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <f t="shared" si="5"/>
         <v>45.186206896551724</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>39.930555555555557</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R13" t="s">
         <v>23</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S13" t="s">
         <v>24</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>627</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1507.5</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>678</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>435</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>151.5</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <f t="shared" si="3"/>
         <v>10.657467532467532</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>8</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <f t="shared" si="4"/>
         <v>35.069444444444436</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>35.069444444444436</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S14" t="s">
         <v>25</v>
       </c>
-      <c r="T13">
+      <c r="T14">
         <v>630</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="S14" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
         <v>26</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>626</v>
       </c>
-      <c r="U14">
+      <c r="U15">
         <v>580</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R15" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
         <v>27</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S16" t="s">
         <v>28</v>
       </c>
-      <c r="T15">
+      <c r="T16">
         <v>631</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="S16" t="s">
+    <row r="17" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
         <v>29</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>622</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="17:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:26" x14ac:dyDescent="0.3">
       <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q20" t="s">
         <v>30</v>
       </c>
-      <c r="R19">
+      <c r="R20" s="1">
         <f>119.28/2.24</f>
         <v>53.249999999999993</v>
       </c>
-      <c r="S19">
-        <f>11%*R19</f>
+      <c r="S20" s="1">
+        <f>11%*R20</f>
         <v>5.857499999999999</v>
       </c>
-    </row>
-    <row r="20" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="R20">
+      <c r="T20" s="1">
+        <f>R20*24</f>
+        <v>1277.9999999999998</v>
+      </c>
+      <c r="U20" s="1">
+        <f>S20*24</f>
+        <v>140.57999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="R21" s="1">
         <f>59.171/0.4291</f>
         <v>137.89559543230015</v>
       </c>
-      <c r="S20">
-        <f t="shared" ref="S20:S28" si="6">11%*R20</f>
+      <c r="S21" s="1">
+        <f t="shared" ref="S21:S29" si="6">11%*R21</f>
         <v>15.168515497553017</v>
       </c>
-    </row>
-    <row r="22" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q22" t="s">
+      <c r="T21" s="1">
+        <f>R21*24</f>
+        <v>3309.4942903752035</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" ref="U21:U37" si="7">S21*24</f>
+        <v>364.0443719412724</v>
+      </c>
+    </row>
+    <row r="22" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1">
+        <f t="shared" ref="T22:T37" si="8">R22*24</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q23" t="s">
         <v>31</v>
       </c>
-      <c r="R22">
+      <c r="R23" s="1">
         <f>99.987/0.67</f>
         <v>149.23432835820893</v>
       </c>
-      <c r="S22">
+      <c r="S23" s="1">
         <f t="shared" si="6"/>
         <v>16.415776119402981</v>
       </c>
-    </row>
-    <row r="23" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q23" t="s">
+      <c r="T23" s="1">
+        <f t="shared" si="8"/>
+        <v>3581.6238805970142</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="7"/>
+        <v>393.97862686567157</v>
+      </c>
+    </row>
+    <row r="24" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q24" t="s">
         <v>33</v>
       </c>
-      <c r="R23">
+      <c r="R24" s="1">
         <f>99.162/0.9569</f>
         <v>103.6283833211412</v>
       </c>
-      <c r="S23">
+      <c r="S24" s="1">
         <f t="shared" si="6"/>
         <v>11.399122165325531</v>
       </c>
-    </row>
-    <row r="24" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q24" t="s">
+      <c r="T24" s="1">
+        <f t="shared" si="8"/>
+        <v>2487.0811997073888</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="7"/>
+        <v>273.57893196781276</v>
+      </c>
+    </row>
+    <row r="25" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q25" t="s">
         <v>32</v>
       </c>
-      <c r="R24">
+      <c r="R25" s="1">
         <f>99.062/1.703</f>
         <v>58.169113329418671</v>
       </c>
-      <c r="S24">
+      <c r="S25" s="1">
         <f t="shared" si="6"/>
         <v>6.3986024662360537</v>
       </c>
-    </row>
-    <row r="26" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q26" t="s">
+      <c r="T25" s="1">
+        <f t="shared" si="8"/>
+        <v>1396.0587199060481</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="7"/>
+        <v>153.5664591896653</v>
+      </c>
+    </row>
+    <row r="26" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q27" t="s">
         <v>34</v>
       </c>
-      <c r="R26">
+      <c r="R27" s="1">
         <f>98.745/0.866</f>
         <v>114.02424942263281</v>
       </c>
-      <c r="S26">
+      <c r="S27" s="1">
         <f t="shared" si="6"/>
         <v>12.542667436489609</v>
       </c>
-    </row>
-    <row r="27" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q27" t="s">
+      <c r="T27" s="1">
+        <f t="shared" si="8"/>
+        <v>2736.5819861431874</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="7"/>
+        <v>301.02401847575061</v>
+      </c>
+    </row>
+    <row r="28" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q28" t="s">
         <v>35</v>
       </c>
-      <c r="R27">
+      <c r="R28" s="1">
         <v>4</v>
       </c>
-      <c r="S27">
+      <c r="S28" s="1">
         <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="28" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q28" t="s">
+      <c r="T28" s="1">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="7"/>
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="29" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q29" t="s">
         <v>36</v>
       </c>
-      <c r="R28">
+      <c r="R29" s="1">
         <f>83.464/14.68</f>
         <v>5.6855585831062667</v>
       </c>
-      <c r="S28">
+      <c r="S29" s="1">
         <f t="shared" si="6"/>
         <v>0.62541144414168937</v>
       </c>
-    </row>
-    <row r="29" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="S29" t="s">
-        <v>44</v>
-      </c>
-      <c r="U29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q30" t="s">
+      <c r="T29" s="1">
+        <f t="shared" si="8"/>
+        <v>136.45340599455039</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="7"/>
+        <v>15.009874659400545</v>
+      </c>
+    </row>
+    <row r="30" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q31" t="s">
         <v>37</v>
       </c>
-      <c r="R30">
+      <c r="R31" s="1">
+        <f>97.886/0.8894</f>
+        <v>110.05846638183044</v>
+      </c>
+      <c r="S31" s="1">
+        <f>11%*R31</f>
+        <v>12.106431302001349</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="8"/>
+        <v>2641.4031931639306</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="7"/>
+        <v>290.55435124803239</v>
+      </c>
+      <c r="Y31">
         <f>99.443/1.0599</f>
         <v>93.823002170016025</v>
       </c>
-      <c r="S30">
-        <f>11%*R30</f>
+      <c r="Z31">
+        <f>11%*Y31</f>
         <v>10.320530238701762</v>
       </c>
-      <c r="T30">
+    </row>
+    <row r="32" spans="17:26" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="1">
+        <f>95.861/0.8694</f>
+        <v>110.2610996089257</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" ref="S32:S37" si="9">11%*R32</f>
+        <v>12.128720956981828</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="8"/>
+        <v>2646.266390614217</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="7"/>
+        <v>291.08930296756387</v>
+      </c>
+      <c r="Y32">
+        <f>98.91/1.2032</f>
+        <v>82.205784574468083</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" ref="Z32:Z37" si="10">11%*Y32</f>
+        <v>9.0426363031914896</v>
+      </c>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="Q33" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="1">
+        <f>95.513/0.9338</f>
+        <v>102.28421503533949</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="9"/>
+        <v>11.251263653887344</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="8"/>
+        <v>2454.8211608481479</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="7"/>
+        <v>270.03032769329627</v>
+      </c>
+      <c r="Y33">
+        <f>98.818/1.2957</f>
+        <v>76.266110982480512</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="10"/>
+        <v>8.3892722080728568</v>
+      </c>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="Q34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" s="1">
+        <f>94.133/0.7804</f>
+        <v>120.62147616606867</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="9"/>
+        <v>13.268362378267554</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="8"/>
+        <v>2894.9154279856484</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="7"/>
+        <v>318.44069707842129</v>
+      </c>
+      <c r="Y34">
+        <f>98.454/1.2536</f>
+        <v>78.537013401403954</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="10"/>
+        <v>8.6390714741544343</v>
+      </c>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="Q35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="1">
+        <f>95.173/0.8623</f>
+        <v>110.37110054505393</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="9"/>
+        <v>12.140821059955933</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="8"/>
+        <v>2648.9064130812944</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="7"/>
+        <v>291.37970543894238</v>
+      </c>
+      <c r="Y35">
+        <f>98.728/1.2516</f>
+        <v>78.881431767337801</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="10"/>
+        <v>8.6769574944071586</v>
+      </c>
+    </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="Q36" t="s">
+        <v>42</v>
+      </c>
+      <c r="R36" s="1">
+        <f>90.097/1.0376</f>
+        <v>86.832112567463369</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="9"/>
+        <v>9.5515323824209712</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="8"/>
+        <v>2083.970701619121</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="7"/>
+        <v>229.2367771781033</v>
+      </c>
+      <c r="Y36">
+        <f>97.391/1.8363</f>
+        <v>53.03654087022818</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="10"/>
+        <v>5.8340194957250997</v>
+      </c>
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="Q37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="1">
+        <f>83.758/1.024</f>
+        <v>81.794921875</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="9"/>
+        <v>8.9974414062499992</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="8"/>
+        <v>1963.078125</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="7"/>
+        <v>215.93859375</v>
+      </c>
+      <c r="Y37">
+        <f>95.721/2.3338</f>
+        <v>41.015082697746166</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="10"/>
+        <v>4.5116590967520782</v>
+      </c>
+    </row>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <f>119.28/2.24</f>
+        <v>53.249999999999993</v>
+      </c>
+      <c r="C60" s="1">
+        <f>11%*B60</f>
+        <v>5.857499999999999</v>
+      </c>
+      <c r="D60" s="1">
+        <f>B60*24</f>
+        <v>1277.9999999999998</v>
+      </c>
+      <c r="E60" s="1">
+        <f>C60*24</f>
+        <v>140.57999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1">
+        <f>59.171/0.4291</f>
+        <v>137.89559543230015</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61" si="11">11%*B61</f>
+        <v>15.168515497553017</v>
+      </c>
+      <c r="D61" s="1">
+        <f>B61*24</f>
+        <v>3309.4942903752035</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" ref="E61:E74" si="12">C61*24</f>
+        <v>364.0443719412724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1">
+        <f>99.987/0.67</f>
+        <v>149.23432835820893</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ref="C62:C64" si="13">11%*B62</f>
+        <v>16.415776119402981</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" ref="D62:D74" si="14">B62*24</f>
+        <v>3581.6238805970142</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="12"/>
+        <v>393.97862686567157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="1">
+        <f>99.162/0.9569</f>
+        <v>103.6283833211412</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="13"/>
+        <v>11.399122165325531</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="14"/>
+        <v>2487.0811997073888</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="12"/>
+        <v>273.57893196781276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="1">
+        <f>99.062/1.703</f>
+        <v>58.169113329418671</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="13"/>
+        <v>6.3986024662360537</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="14"/>
+        <v>1396.0587199060481</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="12"/>
+        <v>153.5664591896653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="1">
+        <f>98.745/0.866</f>
+        <v>114.02424942263281</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" ref="C65:C67" si="15">11%*B65</f>
+        <v>12.542667436489609</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="14"/>
+        <v>2736.5819861431874</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="12"/>
+        <v>301.02401847575061</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="15"/>
+        <v>0.44</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="12"/>
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="1">
+        <f>83.464/14.68</f>
+        <v>5.6855585831062667</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="15"/>
+        <v>0.62541144414168937</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="14"/>
+        <v>136.45340599455039</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="12"/>
+        <v>15.009874659400545</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="1">
         <f>97.886/0.8894</f>
         <v>110.05846638183044</v>
       </c>
-      <c r="U30">
-        <f>11%*T30</f>
+      <c r="C68" s="1">
+        <f>11%*B68</f>
         <v>12.106431302001349</v>
       </c>
-    </row>
-    <row r="31" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q31" t="s">
+      <c r="D68" s="1">
+        <f t="shared" si="14"/>
+        <v>2641.4031931639306</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="12"/>
+        <v>290.55435124803239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>38</v>
       </c>
-      <c r="R31">
-        <f>98.91/1.2032</f>
-        <v>82.205784574468083</v>
-      </c>
-      <c r="S31">
-        <f t="shared" ref="S31:S36" si="7">11%*R31</f>
-        <v>9.0426363031914896</v>
-      </c>
-      <c r="T31">
+      <c r="B69" s="1">
         <f>95.861/0.8694</f>
         <v>110.2610996089257</v>
       </c>
-      <c r="U31">
-        <f t="shared" ref="U31:U36" si="8">11%*T31</f>
+      <c r="C69" s="1">
+        <f t="shared" ref="C69:C74" si="16">11%*B69</f>
         <v>12.128720956981828</v>
       </c>
-    </row>
-    <row r="32" spans="17:21" x14ac:dyDescent="0.3">
-      <c r="Q32" t="s">
+      <c r="D69" s="1">
+        <f t="shared" si="14"/>
+        <v>2646.266390614217</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="12"/>
+        <v>291.08930296756387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>39</v>
       </c>
-      <c r="R32">
-        <f>98.818/1.2957</f>
-        <v>76.266110982480512</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="7"/>
-        <v>8.3892722080728568</v>
-      </c>
-      <c r="T32">
+      <c r="B70" s="1">
         <f>95.513/0.9338</f>
         <v>102.28421503533949</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="8"/>
+      <c r="C70" s="1">
+        <f t="shared" si="16"/>
         <v>11.251263653887344</v>
       </c>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="Q33" t="s">
+      <c r="D70" s="1">
+        <f t="shared" si="14"/>
+        <v>2454.8211608481479</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="12"/>
+        <v>270.03032769329627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>40</v>
       </c>
-      <c r="R33">
-        <f>98.454/1.2536</f>
-        <v>78.537013401403954</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="7"/>
-        <v>8.6390714741544343</v>
-      </c>
-      <c r="T33">
+      <c r="B71" s="1">
         <f>94.133/0.7804</f>
         <v>120.62147616606867</v>
       </c>
-      <c r="U33">
-        <f t="shared" si="8"/>
+      <c r="C71" s="1">
+        <f t="shared" si="16"/>
         <v>13.268362378267554</v>
       </c>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="Q34" t="s">
+      <c r="D71" s="1">
+        <f t="shared" si="14"/>
+        <v>2894.9154279856484</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="12"/>
+        <v>318.44069707842129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>41</v>
       </c>
-      <c r="R34">
-        <f>98.728/1.2516</f>
-        <v>78.881431767337801</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="7"/>
-        <v>8.6769574944071586</v>
-      </c>
-      <c r="T34">
+      <c r="B72" s="1">
         <f>95.173/0.8623</f>
         <v>110.37110054505393</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="8"/>
+      <c r="C72" s="1">
+        <f t="shared" si="16"/>
         <v>12.140821059955933</v>
       </c>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="Q35" t="s">
+      <c r="D72" s="1">
+        <f t="shared" si="14"/>
+        <v>2648.9064130812944</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="12"/>
+        <v>291.37970543894238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>42</v>
       </c>
-      <c r="R35">
-        <f>97.391/1.8363</f>
-        <v>53.03654087022818</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="7"/>
-        <v>5.8340194957250997</v>
-      </c>
-      <c r="T35">
+      <c r="B73" s="1">
         <f>90.097/1.0376</f>
         <v>86.832112567463369</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="8"/>
+      <c r="C73" s="1">
+        <f t="shared" si="16"/>
         <v>9.5515323824209712</v>
       </c>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="Q36" t="s">
+      <c r="D73" s="1">
+        <f t="shared" si="14"/>
+        <v>2083.970701619121</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="12"/>
+        <v>229.2367771781033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>43</v>
       </c>
-      <c r="R36">
-        <f>95.721/2.3338</f>
-        <v>41.015082697746166</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="7"/>
-        <v>4.5116590967520782</v>
-      </c>
-      <c r="T36">
+      <c r="B74" s="1">
         <f>83.758/1.024</f>
         <v>81.794921875</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="8"/>
+      <c r="C74" s="1">
+        <f t="shared" si="16"/>
         <v>8.9974414062499992</v>
       </c>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>0.5</v>
+      <c r="D74" s="1">
+        <f t="shared" si="14"/>
+        <v>1963.078125</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="12"/>
+        <v>215.93859375</v>
       </c>
     </row>
   </sheetData>

--- a/Magisterka/useful.xlsx
+++ b/Magisterka/useful.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="19368" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="19368" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Związki organiczne</t>
   </si>
@@ -181,12 +181,29 @@
   <si>
     <t>Długość fali [nm]</t>
   </si>
+  <si>
+    <t>Tempo degradacji</t>
+  </si>
+  <si>
+    <t>Przyspieszenie degradacji</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,15 +230,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,11 +443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="34341360"/>
-        <c:axId val="34342448"/>
+        <c:axId val="-485985808"/>
+        <c:axId val="-485982000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34341360"/>
+        <c:axId val="-485985808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,12 +535,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34342448"/>
+        <c:crossAx val="-485982000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34342448"/>
+        <c:axId val="-485982000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +628,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34341360"/>
+        <c:crossAx val="-485985808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1079,11 +1100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="34344624"/>
-        <c:axId val="34345712"/>
+        <c:axId val="-485979824"/>
+        <c:axId val="-485974928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34344624"/>
+        <c:axId val="-485979824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,12 +1217,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34345712"/>
+        <c:crossAx val="-485974928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34345712"/>
+        <c:axId val="-485974928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1335,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34344624"/>
+        <c:crossAx val="-485979824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2078,11 +2099,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1819263648"/>
-        <c:axId val="1819264192"/>
+        <c:axId val="-485978192"/>
+        <c:axId val="-485973296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1819263648"/>
+        <c:axId val="-485978192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2177,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1819264192"/>
+        <c:crossAx val="-485973296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2164,7 +2185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1819264192"/>
+        <c:axId val="-485973296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,7 +2267,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1819263648"/>
+        <c:crossAx val="-485978192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4904,15 +4925,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U17" sqref="R1:U17"/>
+    <sheetView tabSelected="1" topLeftCell="N3" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>49</v>
       </c>
@@ -4926,7 +4947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1072.5</v>
       </c>
@@ -4943,7 +4964,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4960,7 +4981,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="S4" t="s">
         <v>9</v>
       </c>
@@ -4968,7 +4989,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="S5" t="s">
         <v>10</v>
       </c>
@@ -4978,8 +4999,17 @@
       <c r="U5">
         <v>582</v>
       </c>
+      <c r="AC5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1072.5</v>
       </c>
@@ -5025,8 +5055,15 @@
       <c r="T6">
         <v>630</v>
       </c>
+      <c r="AC6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="1">
+        <f>59.171/0.4291</f>
+        <v>137.89559543230015</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1120.5</v>
       </c>
@@ -5069,8 +5106,19 @@
       <c r="T7">
         <v>620</v>
       </c>
+      <c r="AC7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>99.987/0.67</f>
+        <v>149.23432835820893</v>
+      </c>
+      <c r="AE7" s="3">
+        <f>($AD$6-AD7)/$AD$6</f>
+        <v>-8.2226940536875404E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1143</v>
       </c>
@@ -5116,8 +5164,19 @@
       <c r="U8">
         <v>580</v>
       </c>
+      <c r="AC8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>99.162/0.9569</f>
+        <v>103.6283833211412</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" ref="AE8:AE19" si="6">($AD$6-AD8)/$AD$6</f>
+        <v>0.24850113597705478</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1191</v>
       </c>
@@ -5163,8 +5222,19 @@
       <c r="T9">
         <v>628</v>
       </c>
+      <c r="AC9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>99.062/1.703</f>
+        <v>58.169113329418671</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5781655451208606</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1237.5</v>
       </c>
@@ -5210,8 +5280,19 @@
       <c r="T10">
         <v>620</v>
       </c>
+      <c r="AC10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD10" s="1">
+        <f>98.745/0.866</f>
+        <v>114.02424942263281</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.17311173670798635</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1291</v>
       </c>
@@ -5254,8 +5335,18 @@
       <c r="T11">
         <v>630</v>
       </c>
+      <c r="AC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="6"/>
+        <v>0.97099254702472493</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1344</v>
       </c>
@@ -5301,8 +5392,19 @@
       <c r="U12">
         <v>570</v>
       </c>
+      <c r="AC12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD12" s="1">
+        <f>83.464/14.68</f>
+        <v>5.6855585831062667</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95876910669059345</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1423.5</v>
       </c>
@@ -5348,8 +5450,19 @@
       <c r="T13">
         <v>627</v>
       </c>
+      <c r="AC13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD13" s="1">
+        <f>97.886/0.8894</f>
+        <v>110.05846638183044</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2018710529745408</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1507.5</v>
       </c>
@@ -5392,8 +5505,19 @@
       <c r="T14">
         <v>630</v>
       </c>
+      <c r="AC14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>95.861/0.8694</f>
+        <v>110.2610996089257</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.20040158452299231</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>26</v>
       </c>
@@ -5403,8 +5527,19 @@
       <c r="U15">
         <v>580</v>
       </c>
+      <c r="AC15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>95.513/0.9338</f>
+        <v>102.28421503533949</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25824886056236712</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R16" t="s">
         <v>27</v>
       </c>
@@ -5414,8 +5549,19 @@
       <c r="T16">
         <v>631</v>
       </c>
+      <c r="AC16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD16" s="1">
+        <f>94.133/0.7804</f>
+        <v>120.62147616606867</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1252695505761256</v>
+      </c>
     </row>
-    <row r="17" spans="17:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:31" x14ac:dyDescent="0.3">
       <c r="S17" t="s">
         <v>29</v>
       </c>
@@ -5425,28 +5571,51 @@
       <c r="U17">
         <v>570</v>
       </c>
+      <c r="AC17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" s="1">
+        <f>95.173/0.8623</f>
+        <v>110.37110054505393</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.19960387277749833</v>
+      </c>
     </row>
-    <row r="19" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q19" t="s">
-        <v>44</v>
-      </c>
-      <c r="R19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S19" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" t="s">
+    <row r="18" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="AC18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD18" s="1">
+        <f>90.097/1.0376</f>
+        <v>86.832112567463369</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="6"/>
+        <v>0.37030539448887911</v>
+      </c>
+    </row>
+    <row r="19" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="W19" t="s">
         <v>46</v>
       </c>
-      <c r="U19" t="s">
+      <c r="X19" t="s">
         <v>47</v>
       </c>
+      <c r="AC19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD19" s="1">
+        <f>83.758/1.024</f>
+        <v>81.794921875</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="6"/>
+        <v>0.4068344125236602</v>
+      </c>
     </row>
-    <row r="20" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q20" t="s">
-        <v>30</v>
-      </c>
+    <row r="20" spans="17:31" x14ac:dyDescent="0.3">
       <c r="R20" s="1">
         <f>119.28/2.24</f>
         <v>53.249999999999993</v>
@@ -5455,46 +5624,63 @@
         <f>11%*R20</f>
         <v>5.857499999999999</v>
       </c>
-      <c r="T20" s="1">
+      <c r="W20" s="1">
         <f>R20*24</f>
         <v>1277.9999999999998</v>
       </c>
-      <c r="U20" s="1">
+      <c r="X20" s="1">
         <f>S20*24</f>
         <v>140.57999999999998</v>
       </c>
     </row>
-    <row r="21" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="R21" s="1">
+    <row r="21" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="Q21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="1">
+        <f>R22*24</f>
+        <v>3309.4942903752035</v>
+      </c>
+      <c r="X21" s="1">
+        <f>S22*24</f>
+        <v>364.0443719412724</v>
+      </c>
+    </row>
+    <row r="22" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="Q22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="1">
         <f>59.171/0.4291</f>
         <v>137.89559543230015</v>
       </c>
-      <c r="S21" s="1">
-        <f t="shared" ref="S21:S29" si="6">11%*R21</f>
+      <c r="S22" s="1">
+        <f>11%*R22</f>
         <v>15.168515497553017</v>
       </c>
-      <c r="T21" s="1">
-        <f>R21*24</f>
-        <v>3309.4942903752035</v>
-      </c>
-      <c r="U21" s="1">
-        <f t="shared" ref="U21:U37" si="7">S21*24</f>
-        <v>364.0443719412724</v>
+      <c r="T22" s="2">
+        <f>R22/90</f>
+        <v>1.5321732825811127</v>
+      </c>
+      <c r="W22" s="1" t="e">
+        <f>#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X22" s="1" t="e">
+        <f>#REF!*24</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1">
-        <f t="shared" ref="T22:T37" si="8">R22*24</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="17:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:31" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>31</v>
       </c>
@@ -5503,19 +5689,23 @@
         <v>149.23432835820893</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="S21:S29" si="7">11%*R23</f>
         <v>16.415776119402981</v>
       </c>
-      <c r="T23" s="1">
-        <f t="shared" si="8"/>
+      <c r="T23" s="2">
+        <f t="shared" ref="T23:T35" si="8">R23/90</f>
+        <v>1.6581592039800992</v>
+      </c>
+      <c r="W23" s="1">
+        <f>R23*24</f>
         <v>3581.6238805970142</v>
       </c>
-      <c r="U23" s="1">
-        <f t="shared" si="7"/>
+      <c r="X23" s="1">
+        <f>S23*24</f>
         <v>393.97862686567157</v>
       </c>
     </row>
-    <row r="24" spans="17:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:31" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>33</v>
       </c>
@@ -5524,19 +5714,23 @@
         <v>103.6283833211412</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.399122165325531</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="2">
         <f t="shared" si="8"/>
+        <v>1.1514264813460133</v>
+      </c>
+      <c r="W24" s="1">
+        <f>R24*24</f>
         <v>2487.0811997073888</v>
       </c>
-      <c r="U24" s="1">
-        <f t="shared" si="7"/>
+      <c r="X24" s="1">
+        <f>S24*24</f>
         <v>273.57893196781276</v>
       </c>
     </row>
-    <row r="25" spans="17:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:31" x14ac:dyDescent="0.3">
       <c r="Q25" t="s">
         <v>32</v>
       </c>
@@ -5545,122 +5739,168 @@
         <v>58.169113329418671</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.3986024662360537</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25" s="2">
         <f t="shared" si="8"/>
+        <v>0.64632348143798524</v>
+      </c>
+      <c r="W25" s="1">
+        <f>R25*24</f>
         <v>1396.0587199060481</v>
       </c>
-      <c r="U25" s="1">
-        <f t="shared" si="7"/>
+      <c r="X25" s="1">
+        <f>S25*24</f>
         <v>153.5664591896653</v>
       </c>
     </row>
-    <row r="26" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q27" t="s">
+    <row r="26" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="Q26" t="s">
         <v>34</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R26" s="1">
         <f>98.745/0.866</f>
         <v>114.02424942263281</v>
       </c>
+      <c r="S26" s="1">
+        <f>11%*R26</f>
+        <v>12.542667436489609</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="8"/>
+        <v>1.26693610469592</v>
+      </c>
+      <c r="W26" s="1" t="e">
+        <f>#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X26" s="1" t="e">
+        <f>#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="1">
+        <v>4</v>
+      </c>
       <c r="S27" s="1">
-        <f t="shared" si="6"/>
-        <v>12.542667436489609</v>
-      </c>
-      <c r="T27" s="1">
+        <f>11%*R27</f>
+        <v>0.44</v>
+      </c>
+      <c r="T27" s="2">
         <f t="shared" si="8"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="W27" s="1">
+        <f>R26*24</f>
         <v>2736.5819861431874</v>
       </c>
-      <c r="U27" s="1">
-        <f t="shared" si="7"/>
+      <c r="X27" s="1">
+        <f>S26*24</f>
         <v>301.02401847575061</v>
       </c>
     </row>
-    <row r="28" spans="17:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:31" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R28" s="1">
-        <v>4</v>
-      </c>
-      <c r="S28" s="1">
-        <f t="shared" si="6"/>
-        <v>0.44</v>
-      </c>
-      <c r="T28" s="1">
-        <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="U28" s="1">
-        <f t="shared" si="7"/>
-        <v>10.56</v>
-      </c>
-    </row>
-    <row r="29" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q29" t="s">
-        <v>36</v>
-      </c>
-      <c r="R29" s="1">
         <f>83.464/14.68</f>
         <v>5.6855585831062667</v>
       </c>
-      <c r="S29" s="1">
-        <f t="shared" si="6"/>
+      <c r="S28" s="1">
+        <f>11%*R28</f>
         <v>0.62541144414168937</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T28" s="2">
         <f t="shared" si="8"/>
-        <v>136.45340599455039</v>
-      </c>
-      <c r="U29" s="1">
-        <f t="shared" si="7"/>
-        <v>15.009874659400545</v>
+        <v>6.3172873145625183E-2</v>
+      </c>
+      <c r="W28" s="1">
+        <f>R27*24</f>
+        <v>96</v>
+      </c>
+      <c r="X28" s="1">
+        <f>S27*24</f>
+        <v>10.56</v>
       </c>
     </row>
-    <row r="30" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q31" t="s">
+    <row r="29" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="Q29" t="s">
         <v>37</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R29" s="1">
         <f>97.886/0.8894</f>
         <v>110.05846638183044</v>
       </c>
+      <c r="S29" s="1">
+        <f>11%*R29</f>
+        <v>12.106431302001349</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2228718486870049</v>
+      </c>
+      <c r="W29" s="1">
+        <f>R28*24</f>
+        <v>136.45340599455039</v>
+      </c>
+      <c r="X29" s="1">
+        <f>S28*24</f>
+        <v>15.009874659400545</v>
+      </c>
+    </row>
+    <row r="30" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="Q30" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="1">
+        <f>95.861/0.8694</f>
+        <v>110.2610996089257</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" ref="S30:S35" si="9">11%*R30</f>
+        <v>12.128720956981828</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2251233289880634</v>
+      </c>
+      <c r="W30" s="1" t="e">
+        <f>#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X30" s="1" t="e">
+        <f>#REF!*24</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="17:31" x14ac:dyDescent="0.3">
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="1">
+        <f>95.513/0.9338</f>
+        <v>102.28421503533949</v>
+      </c>
       <c r="S31" s="1">
-        <f>11%*R31</f>
-        <v>12.106431302001349</v>
-      </c>
-      <c r="T31" s="1">
+        <f t="shared" si="9"/>
+        <v>11.251263653887344</v>
+      </c>
+      <c r="T31" s="2">
         <f t="shared" si="8"/>
+        <v>1.1364912781704388</v>
+      </c>
+      <c r="W31" s="1">
+        <f>R29*24</f>
         <v>2641.4031931639306</v>
       </c>
-      <c r="U31" s="1">
-        <f t="shared" si="7"/>
+      <c r="X31" s="1">
+        <f>S29*24</f>
         <v>290.55435124803239</v>
       </c>
       <c r="Y31">
@@ -5672,24 +5912,28 @@
         <v>10.320530238701762</v>
       </c>
     </row>
-    <row r="32" spans="17:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:31" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R32" s="1">
-        <f>95.861/0.8694</f>
-        <v>110.2610996089257</v>
+        <f>94.133/0.7804</f>
+        <v>120.62147616606867</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" ref="S32:S37" si="9">11%*R32</f>
-        <v>12.128720956981828</v>
-      </c>
-      <c r="T32" s="1">
+        <f t="shared" si="9"/>
+        <v>13.268362378267554</v>
+      </c>
+      <c r="T32" s="2">
         <f t="shared" si="8"/>
+        <v>1.3402386240674298</v>
+      </c>
+      <c r="W32" s="1">
+        <f>R30*24</f>
         <v>2646.266390614217</v>
       </c>
-      <c r="U32" s="1">
-        <f t="shared" si="7"/>
+      <c r="X32" s="1">
+        <f>S30*24</f>
         <v>291.08930296756387</v>
       </c>
       <c r="Y32">
@@ -5703,22 +5947,26 @@
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.3">
       <c r="Q33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R33" s="1">
-        <f>95.513/0.9338</f>
-        <v>102.28421503533949</v>
+        <f>95.173/0.8623</f>
+        <v>110.37110054505393</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="9"/>
-        <v>11.251263653887344</v>
-      </c>
-      <c r="T33" s="1">
+        <v>12.140821059955933</v>
+      </c>
+      <c r="T33" s="2">
         <f t="shared" si="8"/>
+        <v>1.2263455616117105</v>
+      </c>
+      <c r="W33" s="1">
+        <f>R31*24</f>
         <v>2454.8211608481479</v>
       </c>
-      <c r="U33" s="1">
-        <f t="shared" si="7"/>
+      <c r="X33" s="1">
+        <f>S31*24</f>
         <v>270.03032769329627</v>
       </c>
       <c r="Y33">
@@ -5732,22 +5980,26 @@
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.3">
       <c r="Q34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R34" s="1">
-        <f>94.133/0.7804</f>
-        <v>120.62147616606867</v>
+        <f>90.097/1.0376</f>
+        <v>86.832112567463369</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" si="9"/>
-        <v>13.268362378267554</v>
-      </c>
-      <c r="T34" s="1">
+        <v>9.5515323824209712</v>
+      </c>
+      <c r="T34" s="2">
         <f t="shared" si="8"/>
+        <v>0.964801250749593</v>
+      </c>
+      <c r="W34" s="1">
+        <f>R32*24</f>
         <v>2894.9154279856484</v>
       </c>
-      <c r="U34" s="1">
-        <f t="shared" si="7"/>
+      <c r="X34" s="1">
+        <f>S32*24</f>
         <v>318.44069707842129</v>
       </c>
       <c r="Y34">
@@ -5761,22 +6013,26 @@
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.3">
       <c r="Q35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R35" s="1">
-        <f>95.173/0.8623</f>
-        <v>110.37110054505393</v>
+        <f>83.758/1.024</f>
+        <v>81.794921875</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" si="9"/>
-        <v>12.140821059955933</v>
-      </c>
-      <c r="T35" s="1">
+        <v>8.9974414062499992</v>
+      </c>
+      <c r="T35" s="2">
         <f t="shared" si="8"/>
+        <v>0.90883246527777772</v>
+      </c>
+      <c r="W35" s="1">
+        <f>R33*24</f>
         <v>2648.9064130812944</v>
       </c>
-      <c r="U35" s="1">
-        <f t="shared" si="7"/>
+      <c r="X35" s="1">
+        <f>S33*24</f>
         <v>291.37970543894238</v>
       </c>
       <c r="Y35">
@@ -5789,23 +6045,12 @@
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="Q36" t="s">
-        <v>42</v>
-      </c>
-      <c r="R36" s="1">
-        <f>90.097/1.0376</f>
-        <v>86.832112567463369</v>
-      </c>
-      <c r="S36" s="1">
-        <f t="shared" si="9"/>
-        <v>9.5515323824209712</v>
-      </c>
-      <c r="T36" s="1">
-        <f t="shared" si="8"/>
+      <c r="W36" s="1">
+        <f>R34*24</f>
         <v>2083.970701619121</v>
       </c>
-      <c r="U36" s="1">
-        <f t="shared" si="7"/>
+      <c r="X36" s="1">
+        <f>S34*24</f>
         <v>229.2367771781033</v>
       </c>
       <c r="Y36">
@@ -5818,23 +6063,12 @@
       </c>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="Q37" t="s">
-        <v>43</v>
-      </c>
-      <c r="R37" s="1">
-        <f>83.758/1.024</f>
-        <v>81.794921875</v>
-      </c>
-      <c r="S37" s="1">
-        <f t="shared" si="9"/>
-        <v>8.9974414062499992</v>
-      </c>
-      <c r="T37" s="1">
-        <f t="shared" si="8"/>
+      <c r="W37" s="1">
+        <f>R35*24</f>
         <v>1963.078125</v>
       </c>
-      <c r="U37" s="1">
-        <f t="shared" si="7"/>
+      <c r="X37" s="1">
+        <f>S35*24</f>
         <v>215.93859375</v>
       </c>
       <c r="Y37">
@@ -6272,6 +6506,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Magisterka/useful.xlsx
+++ b/Magisterka/useful.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="19368" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="19368" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Związki organiczne</t>
   </si>
@@ -187,13 +187,43 @@
   <si>
     <t>Przyspieszenie degradacji</t>
   </si>
+  <si>
+    <t>rozcienczone</t>
+  </si>
+  <si>
+    <t>9bwp1z1</t>
+  </si>
+  <si>
+    <t>12wp1z2</t>
+  </si>
+  <si>
+    <t>5wp1z2</t>
+  </si>
+  <si>
+    <t>1bwp1z1</t>
+  </si>
+  <si>
+    <t>8wp1z2</t>
+  </si>
+  <si>
+    <t>10x</t>
+  </si>
+  <si>
+    <t>5x</t>
+  </si>
+  <si>
+    <t>3x</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -237,7 +267,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -443,11 +473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-485985808"/>
-        <c:axId val="-485982000"/>
+        <c:axId val="1146973792"/>
+        <c:axId val="1146971072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-485985808"/>
+        <c:axId val="1146973792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,12 +565,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-485982000"/>
+        <c:crossAx val="1146971072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-485982000"/>
+        <c:axId val="1146971072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,7 +658,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-485985808"/>
+        <c:crossAx val="1146973792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1100,11 +1130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-485979824"/>
-        <c:axId val="-485974928"/>
+        <c:axId val="1146975424"/>
+        <c:axId val="1146974880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-485979824"/>
+        <c:axId val="1146975424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,12 +1247,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-485974928"/>
+        <c:crossAx val="1146974880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-485974928"/>
+        <c:axId val="1146974880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1365,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-485979824"/>
+        <c:crossAx val="1146975424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1456,7 +1486,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1672,9 +1701,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1774,7 +1801,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1856,7 +1882,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2099,18 +2124,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-485978192"/>
-        <c:axId val="-485973296"/>
+        <c:axId val="1149054432"/>
+        <c:axId val="1149058240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-485978192"/>
+        <c:axId val="1149054432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2177,7 +2201,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-485973296"/>
+        <c:crossAx val="1149058240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2185,7 +2209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-485973296"/>
+        <c:axId val="1149058240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2230,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2267,7 +2290,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-485978192"/>
+        <c:crossAx val="1149054432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4927,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:T35"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4946,6 +4969,15 @@
       <c r="U1" t="s">
         <v>51</v>
       </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -4963,6 +4995,12 @@
       <c r="T2">
         <v>638</v>
       </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -4980,6 +5018,12 @@
       <c r="T3">
         <v>635</v>
       </c>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="S4" t="s">
@@ -4988,6 +5032,12 @@
       <c r="T4">
         <v>630</v>
       </c>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="S5" t="s">
@@ -4998,6 +5048,12 @@
       </c>
       <c r="U5">
         <v>582</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>61</v>
       </c>
       <c r="AC5" t="s">
         <v>44</v>
@@ -5689,7 +5745,7 @@
         <v>149.23432835820893</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" ref="S21:S29" si="7">11%*R23</f>
+        <f t="shared" ref="S23:S25" si="7">11%*R23</f>
         <v>16.415776119402981</v>
       </c>
       <c r="T23" s="2">
@@ -5697,11 +5753,11 @@
         <v>1.6581592039800992</v>
       </c>
       <c r="W23" s="1">
-        <f>R23*24</f>
+        <f t="shared" ref="W23:X25" si="9">R23*24</f>
         <v>3581.6238805970142</v>
       </c>
       <c r="X23" s="1">
-        <f>S23*24</f>
+        <f t="shared" si="9"/>
         <v>393.97862686567157</v>
       </c>
     </row>
@@ -5722,11 +5778,11 @@
         <v>1.1514264813460133</v>
       </c>
       <c r="W24" s="1">
-        <f>R24*24</f>
+        <f t="shared" si="9"/>
         <v>2487.0811997073888</v>
       </c>
       <c r="X24" s="1">
-        <f>S24*24</f>
+        <f t="shared" si="9"/>
         <v>273.57893196781276</v>
       </c>
     </row>
@@ -5747,11 +5803,11 @@
         <v>0.64632348143798524</v>
       </c>
       <c r="W25" s="1">
-        <f>R25*24</f>
+        <f t="shared" si="9"/>
         <v>1396.0587199060481</v>
       </c>
       <c r="X25" s="1">
-        <f>S25*24</f>
+        <f t="shared" si="9"/>
         <v>153.5664591896653</v>
       </c>
     </row>
@@ -5796,11 +5852,11 @@
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="W27" s="1">
-        <f>R26*24</f>
+        <f t="shared" ref="W27:X29" si="10">R26*24</f>
         <v>2736.5819861431874</v>
       </c>
       <c r="X27" s="1">
-        <f>S26*24</f>
+        <f t="shared" si="10"/>
         <v>301.02401847575061</v>
       </c>
     </row>
@@ -5821,11 +5877,11 @@
         <v>6.3172873145625183E-2</v>
       </c>
       <c r="W28" s="1">
-        <f>R27*24</f>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="X28" s="1">
-        <f>S27*24</f>
+        <f t="shared" si="10"/>
         <v>10.56</v>
       </c>
     </row>
@@ -5846,11 +5902,11 @@
         <v>1.2228718486870049</v>
       </c>
       <c r="W29" s="1">
-        <f>R28*24</f>
+        <f t="shared" si="10"/>
         <v>136.45340599455039</v>
       </c>
       <c r="X29" s="1">
-        <f>S28*24</f>
+        <f t="shared" si="10"/>
         <v>15.009874659400545</v>
       </c>
     </row>
@@ -5863,7 +5919,7 @@
         <v>110.2610996089257</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" ref="S30:S35" si="9">11%*R30</f>
+        <f t="shared" ref="S30:S35" si="11">11%*R30</f>
         <v>12.128720956981828</v>
       </c>
       <c r="T30" s="2">
@@ -5888,7 +5944,7 @@
         <v>102.28421503533949</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.251263653887344</v>
       </c>
       <c r="T31" s="2">
@@ -5896,11 +5952,11 @@
         <v>1.1364912781704388</v>
       </c>
       <c r="W31" s="1">
-        <f>R29*24</f>
+        <f t="shared" ref="W31:X37" si="12">R29*24</f>
         <v>2641.4031931639306</v>
       </c>
       <c r="X31" s="1">
-        <f>S29*24</f>
+        <f t="shared" si="12"/>
         <v>290.55435124803239</v>
       </c>
       <c r="Y31">
@@ -5921,7 +5977,7 @@
         <v>120.62147616606867</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.268362378267554</v>
       </c>
       <c r="T32" s="2">
@@ -5929,11 +5985,11 @@
         <v>1.3402386240674298</v>
       </c>
       <c r="W32" s="1">
-        <f>R30*24</f>
+        <f t="shared" si="12"/>
         <v>2646.266390614217</v>
       </c>
       <c r="X32" s="1">
-        <f>S30*24</f>
+        <f t="shared" si="12"/>
         <v>291.08930296756387</v>
       </c>
       <c r="Y32">
@@ -5941,7 +5997,7 @@
         <v>82.205784574468083</v>
       </c>
       <c r="Z32">
-        <f t="shared" ref="Z32:Z37" si="10">11%*Y32</f>
+        <f t="shared" ref="Z32:Z37" si="13">11%*Y32</f>
         <v>9.0426363031914896</v>
       </c>
     </row>
@@ -5954,7 +6010,7 @@
         <v>110.37110054505393</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.140821059955933</v>
       </c>
       <c r="T33" s="2">
@@ -5962,11 +6018,11 @@
         <v>1.2263455616117105</v>
       </c>
       <c r="W33" s="1">
-        <f>R31*24</f>
+        <f t="shared" si="12"/>
         <v>2454.8211608481479</v>
       </c>
       <c r="X33" s="1">
-        <f>S31*24</f>
+        <f t="shared" si="12"/>
         <v>270.03032769329627</v>
       </c>
       <c r="Y33">
@@ -5974,7 +6030,7 @@
         <v>76.266110982480512</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.3892722080728568</v>
       </c>
     </row>
@@ -5987,7 +6043,7 @@
         <v>86.832112567463369</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.5515323824209712</v>
       </c>
       <c r="T34" s="2">
@@ -5995,11 +6051,11 @@
         <v>0.964801250749593</v>
       </c>
       <c r="W34" s="1">
-        <f>R32*24</f>
+        <f t="shared" si="12"/>
         <v>2894.9154279856484</v>
       </c>
       <c r="X34" s="1">
-        <f>S32*24</f>
+        <f t="shared" si="12"/>
         <v>318.44069707842129</v>
       </c>
       <c r="Y34">
@@ -6007,7 +6063,7 @@
         <v>78.537013401403954</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.6390714741544343</v>
       </c>
     </row>
@@ -6020,7 +6076,7 @@
         <v>81.794921875</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.9974414062499992</v>
       </c>
       <c r="T35" s="2">
@@ -6028,11 +6084,11 @@
         <v>0.90883246527777772</v>
       </c>
       <c r="W35" s="1">
-        <f>R33*24</f>
+        <f t="shared" si="12"/>
         <v>2648.9064130812944</v>
       </c>
       <c r="X35" s="1">
-        <f>S33*24</f>
+        <f t="shared" si="12"/>
         <v>291.37970543894238</v>
       </c>
       <c r="Y35">
@@ -6040,17 +6096,17 @@
         <v>78.881431767337801</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.6769574944071586</v>
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.3">
       <c r="W36" s="1">
-        <f>R34*24</f>
+        <f t="shared" si="12"/>
         <v>2083.970701619121</v>
       </c>
       <c r="X36" s="1">
-        <f>S34*24</f>
+        <f t="shared" si="12"/>
         <v>229.2367771781033</v>
       </c>
       <c r="Y36">
@@ -6058,17 +6114,17 @@
         <v>53.03654087022818</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.8340194957250997</v>
       </c>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.3">
       <c r="W37" s="1">
-        <f>R35*24</f>
+        <f t="shared" si="12"/>
         <v>1963.078125</v>
       </c>
       <c r="X37" s="1">
-        <f>S35*24</f>
+        <f t="shared" si="12"/>
         <v>215.93859375</v>
       </c>
       <c r="Y37">
@@ -6076,7 +6132,7 @@
         <v>41.015082697746166</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.5116590967520782</v>
       </c>
     </row>
@@ -6220,7 +6276,7 @@
         <v>137.89559543230015</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61" si="11">11%*B61</f>
+        <f t="shared" ref="C61" si="14">11%*B61</f>
         <v>15.168515497553017</v>
       </c>
       <c r="D61" s="1">
@@ -6228,7 +6284,7 @@
         <v>3309.4942903752035</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E74" si="12">C61*24</f>
+        <f t="shared" ref="E61:E74" si="15">C61*24</f>
         <v>364.0443719412724</v>
       </c>
     </row>
@@ -6241,15 +6297,15 @@
         <v>149.23432835820893</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ref="C62:C64" si="13">11%*B62</f>
+        <f t="shared" ref="C62:C64" si="16">11%*B62</f>
         <v>16.415776119402981</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:D74" si="14">B62*24</f>
+        <f t="shared" ref="D62:D74" si="17">B62*24</f>
         <v>3581.6238805970142</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>393.97862686567157</v>
       </c>
     </row>
@@ -6262,15 +6318,15 @@
         <v>103.6283833211412</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>11.399122165325531</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2487.0811997073888</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>273.57893196781276</v>
       </c>
     </row>
@@ -6283,15 +6339,15 @@
         <v>58.169113329418671</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.3986024662360537</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1396.0587199060481</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>153.5664591896653</v>
       </c>
     </row>
@@ -6304,15 +6360,15 @@
         <v>114.02424942263281</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:C67" si="15">11%*B65</f>
+        <f t="shared" ref="C65:C67" si="18">11%*B65</f>
         <v>12.542667436489609</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2736.5819861431874</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>301.02401847575061</v>
       </c>
     </row>
@@ -6324,15 +6380,15 @@
         <v>4</v>
       </c>
       <c r="C66" s="1">
+        <f t="shared" si="18"/>
+        <v>0.44</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="E66" s="1">
         <f t="shared" si="15"/>
-        <v>0.44</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="14"/>
-        <v>96</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="12"/>
         <v>10.56</v>
       </c>
     </row>
@@ -6345,15 +6401,15 @@
         <v>5.6855585831062667</v>
       </c>
       <c r="C67" s="1">
+        <f t="shared" si="18"/>
+        <v>0.62541144414168937</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="17"/>
+        <v>136.45340599455039</v>
+      </c>
+      <c r="E67" s="1">
         <f t="shared" si="15"/>
-        <v>0.62541144414168937</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" si="14"/>
-        <v>136.45340599455039</v>
-      </c>
-      <c r="E67" s="1">
-        <f t="shared" si="12"/>
         <v>15.009874659400545</v>
       </c>
     </row>
@@ -6370,11 +6426,11 @@
         <v>12.106431302001349</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2641.4031931639306</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>290.55435124803239</v>
       </c>
     </row>
@@ -6387,15 +6443,15 @@
         <v>110.2610996089257</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C74" si="16">11%*B69</f>
+        <f t="shared" ref="C69:C74" si="19">11%*B69</f>
         <v>12.128720956981828</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2646.266390614217</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>291.08930296756387</v>
       </c>
     </row>
@@ -6408,15 +6464,15 @@
         <v>102.28421503533949</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11.251263653887344</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2454.8211608481479</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>270.03032769329627</v>
       </c>
     </row>
@@ -6429,15 +6485,15 @@
         <v>120.62147616606867</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>13.268362378267554</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2894.9154279856484</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>318.44069707842129</v>
       </c>
     </row>
@@ -6450,15 +6506,15 @@
         <v>110.37110054505393</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>12.140821059955933</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2648.9064130812944</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>291.37970543894238</v>
       </c>
     </row>
@@ -6471,15 +6527,15 @@
         <v>86.832112567463369</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9.5515323824209712</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2083.970701619121</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>229.2367771781033</v>
       </c>
     </row>
@@ -6492,15 +6548,15 @@
         <v>81.794921875</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8.9974414062499992</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1963.078125</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>215.93859375</v>
       </c>
     </row>

--- a/Magisterka/useful.xlsx
+++ b/Magisterka/useful.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="19368" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="19368" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
   <si>
     <t>Związki organiczne</t>
   </si>
@@ -217,6 +217,30 @@
   <si>
     <t>2x</t>
   </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>Rusztowanie</t>
+  </si>
+  <si>
+    <t>Niepewność</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Całkowita degradacja (NaOH)</t>
+  </si>
+  <si>
+    <t>Całkowita degradacja (w warunkach rzeczywistych)</t>
+  </si>
 </sst>
 </file>
 
@@ -264,11 +288,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,11 +498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146973792"/>
-        <c:axId val="1146971072"/>
+        <c:axId val="1431988848"/>
+        <c:axId val="1431987760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146973792"/>
+        <c:axId val="1431988848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,12 +590,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146971072"/>
+        <c:crossAx val="1431987760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146971072"/>
+        <c:axId val="1431987760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +683,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146973792"/>
+        <c:crossAx val="1431988848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1130,11 +1155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1146975424"/>
-        <c:axId val="1146974880"/>
+        <c:axId val="1431994832"/>
+        <c:axId val="1431997008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1146975424"/>
+        <c:axId val="1431994832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,12 +1272,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146974880"/>
+        <c:crossAx val="1431997008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146974880"/>
+        <c:axId val="1431997008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1390,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146975424"/>
+        <c:crossAx val="1431994832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1486,6 +1511,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1701,7 +1727,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1801,6 +1829,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1882,6 +1911,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1951,7 +1981,7 @@
                     <c:v>16.415776119402981</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>11.399122165325531</c:v>
+                    <c:v>6.49</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>6.3986024662360537</c:v>
@@ -1963,7 +1993,7 @@
                     <c:v>0.44</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.62541144414168937</c:v>
+                    <c:v>1.0459121443265187</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>12.106431302001349</c:v>
@@ -2075,7 +2105,7 @@
                   <c:v>149.23432835820893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.6283833211412</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>58.169113329418671</c:v>
@@ -2087,7 +2117,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6855585831062667</c:v>
+                  <c:v>9.5082922211501693</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>110.05846638183044</c:v>
@@ -2124,17 +2154,48 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1149054432"/>
-        <c:axId val="1149058240"/>
+        <c:axId val="1431982864"/>
+        <c:axId val="1431995376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1149054432"/>
+        <c:axId val="1431982864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rodzaj</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> rusztowania</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2201,7 +2262,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149058240"/>
+        <c:crossAx val="1431995376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2209,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1149058240"/>
+        <c:axId val="1431995376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,6 +2291,37 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> w dniach</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2290,7 +2382,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149054432"/>
+        <c:crossAx val="1431982864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4594,16 +4686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4624,15 +4716,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4654,16 +4746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4948,15 +5040,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="AH22" workbookViewId="0">
+      <selection activeCell="AL33" sqref="AH23:AL33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>49</v>
       </c>
@@ -4979,7 +5071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1072.5</v>
       </c>
@@ -5002,7 +5094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5025,7 +5117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="S4" t="s">
         <v>9</v>
       </c>
@@ -5039,7 +5131,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="S5" t="s">
         <v>10</v>
       </c>
@@ -5065,7 +5157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1072.5</v>
       </c>
@@ -5118,8 +5210,14 @@
         <f>59.171/0.4291</f>
         <v>137.89559543230015</v>
       </c>
+      <c r="AH6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1120.5</v>
       </c>
@@ -5173,8 +5271,15 @@
         <f>($AD$6-AD7)/$AD$6</f>
         <v>-8.2226940536875404E-2</v>
       </c>
+      <c r="AH7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="1">
+        <f>59.171/0.4291</f>
+        <v>137.89559543230015</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1143</v>
       </c>
@@ -5224,15 +5329,21 @@
         <v>33</v>
       </c>
       <c r="AD8" s="1">
-        <f>99.162/0.9569</f>
-        <v>103.6283833211412</v>
+        <v>59</v>
       </c>
       <c r="AE8" s="3">
         <f t="shared" ref="AE8:AE19" si="6">($AD$6-AD8)/$AD$6</f>
-        <v>0.24850113597705478</v>
+        <v>0.57214006861469302</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="1">
+        <f>99.987/0.67</f>
+        <v>149.23432835820893</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1191</v>
       </c>
@@ -5289,8 +5400,15 @@
         <f t="shared" si="6"/>
         <v>0.5781655451208606</v>
       </c>
+      <c r="AH9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI9" s="1">
+        <f>100/1.6983</f>
+        <v>58.882411823588299</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1237.5</v>
       </c>
@@ -5347,8 +5465,15 @@
         <f t="shared" si="6"/>
         <v>0.17311173670798635</v>
       </c>
+      <c r="AH10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI10" s="1">
+        <f>99.062/1.703</f>
+        <v>58.169113329418671</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1291</v>
       </c>
@@ -5401,8 +5526,19 @@
         <f t="shared" si="6"/>
         <v>0.97099254702472493</v>
       </c>
+      <c r="AH11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI11" s="1">
+        <f>98.745/0.866</f>
+        <v>114.02424942263281</v>
+      </c>
+      <c r="AJ11">
+        <f>AI7/AI27</f>
+        <v>1.2529303738786728</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1344</v>
       </c>
@@ -5452,15 +5588,28 @@
         <v>36</v>
       </c>
       <c r="AD12" s="1">
-        <f>83.464/14.68</f>
-        <v>5.6855585831062667</v>
+        <v>10</v>
       </c>
       <c r="AE12" s="3">
         <f t="shared" si="6"/>
-        <v>0.95876910669059345</v>
+        <v>0.92748136756181232</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK12">
+        <f>AI12*$AJ$11</f>
+        <v>5.0117214955146911</v>
+      </c>
+      <c r="AL12" s="1">
+        <f>100/1.6983</f>
+        <v>58.882411823588299</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1423.5</v>
       </c>
@@ -5517,8 +5666,26 @@
         <f t="shared" si="6"/>
         <v>0.2018710529745408</v>
       </c>
+      <c r="AH13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK13">
+        <f>AI13*$AJ$11</f>
+        <v>12.529303738786728</v>
+      </c>
+      <c r="AL13" s="1">
+        <f>99.062/1.703</f>
+        <v>58.169113329418671</v>
+      </c>
+      <c r="AM13">
+        <f>AVERAGE(AK13:AL13)</f>
+        <v>35.349208534102701</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1507.5</v>
       </c>
@@ -5572,8 +5739,11 @@
         <f t="shared" si="6"/>
         <v>0.20040158452299231</v>
       </c>
+      <c r="AH14" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>26</v>
       </c>
@@ -5594,8 +5764,11 @@
         <f t="shared" si="6"/>
         <v>0.25824886056236712</v>
       </c>
+      <c r="AH15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="R16" t="s">
         <v>27</v>
       </c>
@@ -5616,8 +5789,11 @@
         <f t="shared" si="6"/>
         <v>0.1252695505761256</v>
       </c>
+      <c r="AH16" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="17" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:38" x14ac:dyDescent="0.3">
       <c r="S17" t="s">
         <v>29</v>
       </c>
@@ -5638,8 +5814,11 @@
         <f t="shared" si="6"/>
         <v>0.19960387277749833</v>
       </c>
+      <c r="AH17" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="18" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:38" x14ac:dyDescent="0.3">
       <c r="AC18" t="s">
         <v>42</v>
       </c>
@@ -5651,8 +5830,11 @@
         <f t="shared" si="6"/>
         <v>0.37030539448887911</v>
       </c>
+      <c r="AH18" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="19" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:38" x14ac:dyDescent="0.3">
       <c r="W19" t="s">
         <v>46</v>
       </c>
@@ -5670,8 +5852,11 @@
         <f t="shared" si="6"/>
         <v>0.4068344125236602</v>
       </c>
+      <c r="AH19" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="20" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:38" x14ac:dyDescent="0.3">
       <c r="R20" s="1">
         <f>119.28/2.24</f>
         <v>53.249999999999993</v>
@@ -5688,8 +5873,11 @@
         <f>S20*24</f>
         <v>140.57999999999998</v>
       </c>
+      <c r="AH20" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="21" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q21" t="s">
         <v>44</v>
       </c>
@@ -5711,7 +5899,7 @@
         <v>364.0443719412724</v>
       </c>
     </row>
-    <row r="22" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q22" t="s">
         <v>30</v>
       </c>
@@ -5736,7 +5924,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>31</v>
       </c>
@@ -5760,8 +5948,23 @@
         <f t="shared" si="9"/>
         <v>393.97862686567157</v>
       </c>
+      <c r="AH23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="24" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>33</v>
       </c>
@@ -5785,8 +5988,25 @@
         <f t="shared" si="9"/>
         <v>273.57893196781276</v>
       </c>
+      <c r="AH24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>149</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>149</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" ref="AK24:AK25" si="10">AJ24*7%</f>
+        <v>10.430000000000001</v>
+      </c>
+      <c r="AL24" s="4">
+        <f>AJ24/90</f>
+        <v>1.6555555555555554</v>
+      </c>
     </row>
-    <row r="25" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q25" t="s">
         <v>32</v>
       </c>
@@ -5810,8 +6030,26 @@
         <f t="shared" si="9"/>
         <v>153.5664591896653</v>
       </c>
+      <c r="AH25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>35.349208534102701</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f>AI25*$AJ$11</f>
+        <v>44.290097064948469</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="10"/>
+        <v>3.1003067945463934</v>
+      </c>
+      <c r="AL25" s="4">
+        <f t="shared" ref="AL25:AL33" si="11">AJ25/90</f>
+        <v>0.49211218961053854</v>
+      </c>
     </row>
-    <row r="26" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q26" t="s">
         <v>34</v>
       </c>
@@ -5835,8 +6073,27 @@
         <f>#REF!*24</f>
         <v>#REF!</v>
       </c>
+      <c r="AH26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI26" s="1">
+        <f>AVERAGE(AK12:AL12)</f>
+        <v>31.947066659551496</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f>AI26*$AJ$11</f>
+        <v>40.027450174078737</v>
+      </c>
+      <c r="AK26" s="1">
+        <f>AJ26*7%</f>
+        <v>2.8019215121855119</v>
+      </c>
+      <c r="AL26" s="4">
+        <f t="shared" si="11"/>
+        <v>0.44474944637865266</v>
+      </c>
     </row>
-    <row r="27" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q27" t="s">
         <v>35</v>
       </c>
@@ -5852,15 +6109,33 @@
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27:X29" si="10">R26*24</f>
+        <f t="shared" ref="W27:X29" si="12">R26*24</f>
         <v>2736.5819861431874</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>301.02401847575061</v>
       </c>
+      <c r="AH27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI27" s="1">
+        <f>97.886/0.8894</f>
+        <v>110.05846638183044</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f>AI27*$AJ$11</f>
+        <v>137.89559543230015</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>12.106431302001349</v>
+      </c>
+      <c r="AL27" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5321732825811127</v>
+      </c>
     </row>
-    <row r="28" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>36</v>
       </c>
@@ -5877,15 +6152,33 @@
         <v>6.3172873145625183E-2</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10.56</v>
       </c>
+      <c r="AH28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI28" s="1">
+        <f>95.861/0.8694</f>
+        <v>110.2610996089257</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f>AI28*$AJ$11</f>
+        <v>138.14948075728486</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>12.128720956981828</v>
+      </c>
+      <c r="AL28" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5349942306364985</v>
+      </c>
     </row>
-    <row r="29" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q29" t="s">
         <v>37</v>
       </c>
@@ -5902,15 +6195,33 @@
         <v>1.2228718486870049</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>136.45340599455039</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15.009874659400545</v>
       </c>
+      <c r="AH29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI29" s="1">
+        <f>95.513/0.9338</f>
+        <v>102.28421503533949</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f>AI29*$AJ$11</f>
+        <v>128.15499978611447</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>11.251263653887344</v>
+      </c>
+      <c r="AL29" s="4">
+        <f t="shared" si="11"/>
+        <v>1.4239444420679386</v>
+      </c>
     </row>
-    <row r="30" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>38</v>
       </c>
@@ -5919,7 +6230,7 @@
         <v>110.2610996089257</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" ref="S30:S35" si="11">11%*R30</f>
+        <f t="shared" ref="S30:S35" si="13">11%*R30</f>
         <v>12.128720956981828</v>
       </c>
       <c r="T30" s="2">
@@ -5934,8 +6245,26 @@
         <f>#REF!*24</f>
         <v>#REF!</v>
       </c>
+      <c r="AH30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI30" s="1">
+        <f>94.133/0.7804</f>
+        <v>120.62147616606867</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f>AI30*$AJ$11</f>
+        <v>151.13031123054984</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>13.268362378267554</v>
+      </c>
+      <c r="AL30" s="4">
+        <f t="shared" si="11"/>
+        <v>1.6792256803394425</v>
+      </c>
     </row>
-    <row r="31" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q31" t="s">
         <v>39</v>
       </c>
@@ -5944,7 +6273,7 @@
         <v>102.28421503533949</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11.251263653887344</v>
       </c>
       <c r="T31" s="2">
@@ -5952,11 +6281,11 @@
         <v>1.1364912781704388</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31:X37" si="12">R29*24</f>
+        <f t="shared" ref="W31:X37" si="14">R29*24</f>
         <v>2641.4031931639306</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>290.55435124803239</v>
       </c>
       <c r="Y31">
@@ -5967,8 +6296,26 @@
         <f>11%*Y31</f>
         <v>10.320530238701762</v>
       </c>
+      <c r="AH31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI31" s="1">
+        <f>95.173/0.8623</f>
+        <v>110.37110054505393</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f>AI31*$AJ$11</f>
+        <v>138.28730427131501</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>12.140821059955933</v>
+      </c>
+      <c r="AL31" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5365256030146113</v>
+      </c>
     </row>
-    <row r="32" spans="17:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:38" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>40</v>
       </c>
@@ -5977,7 +6324,7 @@
         <v>120.62147616606867</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13.268362378267554</v>
       </c>
       <c r="T32" s="2">
@@ -5985,11 +6332,11 @@
         <v>1.3402386240674298</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2646.266390614217</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>291.08930296756387</v>
       </c>
       <c r="Y32">
@@ -5997,11 +6344,29 @@
         <v>82.205784574468083</v>
       </c>
       <c r="Z32">
-        <f t="shared" ref="Z32:Z37" si="13">11%*Y32</f>
+        <f t="shared" ref="Z32:Z37" si="15">11%*Y32</f>
         <v>9.0426363031914896</v>
       </c>
+      <c r="AH32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI32" s="1">
+        <f>90.097/1.0376</f>
+        <v>86.832112567463369</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f>AI32*$AJ$11</f>
+        <v>108.79459126382689</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>9.5515323824209712</v>
+      </c>
+      <c r="AL32" s="4">
+        <f t="shared" si="11"/>
+        <v>1.2088287918202987</v>
+      </c>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:40" x14ac:dyDescent="0.3">
       <c r="Q33" t="s">
         <v>41</v>
       </c>
@@ -6010,7 +6375,7 @@
         <v>110.37110054505393</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12.140821059955933</v>
       </c>
       <c r="T33" s="2">
@@ -6018,11 +6383,11 @@
         <v>1.2263455616117105</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2454.8211608481479</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>270.03032769329627</v>
       </c>
       <c r="Y33">
@@ -6030,11 +6395,29 @@
         <v>76.266110982480512</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.3892722080728568</v>
       </c>
+      <c r="AH33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI33" s="1">
+        <f>83.758/1.024</f>
+        <v>81.794921875</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f>AI33*$AJ$11</f>
+        <v>102.48334204622059</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>8.9974414062499992</v>
+      </c>
+      <c r="AL33" s="4">
+        <f t="shared" si="11"/>
+        <v>1.1387038005135621</v>
+      </c>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:40" x14ac:dyDescent="0.3">
       <c r="Q34" t="s">
         <v>42</v>
       </c>
@@ -6043,7 +6426,7 @@
         <v>86.832112567463369</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9.5515323824209712</v>
       </c>
       <c r="T34" s="2">
@@ -6051,11 +6434,11 @@
         <v>0.964801250749593</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2894.9154279856484</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>318.44069707842129</v>
       </c>
       <c r="Y34">
@@ -6063,11 +6446,15 @@
         <v>78.537013401403954</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.6390714741544343</v>
       </c>
+      <c r="AN34">
+        <f>90*24</f>
+        <v>2160</v>
+      </c>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:40" x14ac:dyDescent="0.3">
       <c r="Q35" t="s">
         <v>43</v>
       </c>
@@ -6076,7 +6463,7 @@
         <v>81.794921875</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.9974414062499992</v>
       </c>
       <c r="T35" s="2">
@@ -6084,11 +6471,11 @@
         <v>0.90883246527777772</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2648.9064130812944</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>291.37970543894238</v>
       </c>
       <c r="Y35">
@@ -6096,17 +6483,17 @@
         <v>78.881431767337801</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.6769574944071586</v>
       </c>
     </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:40" x14ac:dyDescent="0.3">
       <c r="W36" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2083.970701619121</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>229.2367771781033</v>
       </c>
       <c r="Y36">
@@ -6114,17 +6501,32 @@
         <v>53.03654087022818</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8340194957250997</v>
       </c>
+      <c r="AH36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:40" x14ac:dyDescent="0.3">
       <c r="W37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1963.078125</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>215.93859375</v>
       </c>
       <c r="Y37">
@@ -6132,48 +6534,246 @@
         <v>41.015082697746166</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.5116590967520782</v>
       </c>
+      <c r="AH37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI37" s="1">
+        <f>AI24*24</f>
+        <v>3576</v>
+      </c>
+      <c r="AJ37" s="1">
+        <f>AJ24*24</f>
+        <v>3576</v>
+      </c>
+      <c r="AK37" s="1">
+        <f>AK24*24</f>
+        <v>250.32000000000005</v>
+      </c>
+      <c r="AL37" s="4">
+        <f>AJ37/$AN$34</f>
+        <v>1.6555555555555554</v>
+      </c>
     </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="AH38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" ref="AI38:AK46" si="16">AI25*24</f>
+        <v>848.38100481846482</v>
+      </c>
+      <c r="AJ38" s="1">
+        <f>AJ25*24</f>
+        <v>1062.9623295587633</v>
+      </c>
+      <c r="AK38" s="1">
+        <f t="shared" si="16"/>
+        <v>74.407363069113444</v>
+      </c>
+      <c r="AL38" s="4">
+        <f>AJ38/$AN$34</f>
+        <v>0.49211218961053854</v>
+      </c>
+    </row>
+    <row r="39" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="AH39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="16"/>
+        <v>766.72959982923589</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f t="shared" si="16"/>
+        <v>960.65880417788969</v>
+      </c>
+      <c r="AK39" s="1">
+        <f t="shared" si="16"/>
+        <v>67.246116292452285</v>
+      </c>
+      <c r="AL39" s="4">
+        <f t="shared" ref="AL38:AL46" si="17">AJ39/$AN$34</f>
+        <v>0.44474944637865266</v>
+      </c>
+    </row>
+    <row r="40" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40">
         <v>33</v>
       </c>
+      <c r="AH40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI40" s="1">
+        <f t="shared" si="16"/>
+        <v>2641.4031931639306</v>
+      </c>
+      <c r="AJ40" s="1">
+        <f t="shared" si="16"/>
+        <v>3309.4942903752035</v>
+      </c>
+      <c r="AK40" s="1">
+        <f t="shared" si="16"/>
+        <v>290.55435124803239</v>
+      </c>
+      <c r="AL40" s="4">
+        <f t="shared" si="17"/>
+        <v>1.5321732825811127</v>
+      </c>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41">
         <v>39</v>
       </c>
+      <c r="AH41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI41" s="1">
+        <f t="shared" si="16"/>
+        <v>2646.266390614217</v>
+      </c>
+      <c r="AJ41" s="1">
+        <f t="shared" si="16"/>
+        <v>3315.5875381748365</v>
+      </c>
+      <c r="AK41" s="1">
+        <f t="shared" si="16"/>
+        <v>291.08930296756387</v>
+      </c>
+      <c r="AL41" s="4">
+        <f t="shared" si="17"/>
+        <v>1.5349942306364983</v>
+      </c>
     </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42">
         <v>0.2</v>
       </c>
+      <c r="AH42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI42" s="1">
+        <f t="shared" si="16"/>
+        <v>2454.8211608481479</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f t="shared" si="16"/>
+        <v>3075.7199948667476</v>
+      </c>
+      <c r="AK42" s="1">
+        <f t="shared" si="16"/>
+        <v>270.03032769329627</v>
+      </c>
+      <c r="AL42" s="4">
+        <f t="shared" si="17"/>
+        <v>1.4239444420679388</v>
+      </c>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="D43">
         <v>0.7</v>
       </c>
+      <c r="AH43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" si="16"/>
+        <v>2894.9154279856484</v>
+      </c>
+      <c r="AJ43" s="1">
+        <f t="shared" si="16"/>
+        <v>3627.1274695331958</v>
+      </c>
+      <c r="AK43" s="1">
+        <f t="shared" si="16"/>
+        <v>318.44069707842129</v>
+      </c>
+      <c r="AL43" s="4">
+        <f t="shared" si="17"/>
+        <v>1.6792256803394425</v>
+      </c>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44">
         <v>0.5</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI44" s="1">
+        <f t="shared" si="16"/>
+        <v>2648.9064130812944</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="16"/>
+        <v>3318.8953025115602</v>
+      </c>
+      <c r="AK44" s="1">
+        <f t="shared" si="16"/>
+        <v>291.37970543894238</v>
+      </c>
+      <c r="AL44" s="4">
+        <f t="shared" si="17"/>
+        <v>1.5365256030146113</v>
+      </c>
+    </row>
+    <row r="45" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="AH45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI45" s="1">
+        <f t="shared" si="16"/>
+        <v>2083.970701619121</v>
+      </c>
+      <c r="AJ45" s="1">
+        <f t="shared" si="16"/>
+        <v>2611.0701903318454</v>
+      </c>
+      <c r="AK45" s="1">
+        <f t="shared" si="16"/>
+        <v>229.2367771781033</v>
+      </c>
+      <c r="AL45" s="4">
+        <f t="shared" si="17"/>
+        <v>1.2088287918202989</v>
+      </c>
+    </row>
+    <row r="46" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="AH46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI46" s="1">
+        <f t="shared" si="16"/>
+        <v>1963.078125</v>
+      </c>
+      <c r="AJ46" s="1">
+        <f t="shared" si="16"/>
+        <v>2459.6002091092942</v>
+      </c>
+      <c r="AK46" s="1">
+        <f t="shared" si="16"/>
+        <v>215.93859375</v>
+      </c>
+      <c r="AL46" s="4">
+        <f t="shared" si="17"/>
+        <v>1.1387038005135621</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -6276,7 +6876,7 @@
         <v>137.89559543230015</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61" si="14">11%*B61</f>
+        <f t="shared" ref="C61" si="18">11%*B61</f>
         <v>15.168515497553017</v>
       </c>
       <c r="D61" s="1">
@@ -6284,7 +6884,7 @@
         <v>3309.4942903752035</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E74" si="15">C61*24</f>
+        <f t="shared" ref="E61:E74" si="19">C61*24</f>
         <v>364.0443719412724</v>
       </c>
     </row>
@@ -6297,15 +6897,15 @@
         <v>149.23432835820893</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ref="C62:C64" si="16">11%*B62</f>
+        <f t="shared" ref="C62:C64" si="20">11%*B62</f>
         <v>16.415776119402981</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:D74" si="17">B62*24</f>
+        <f t="shared" ref="D62:D74" si="21">B62*24</f>
         <v>3581.6238805970142</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>393.97862686567157</v>
       </c>
     </row>
@@ -6314,20 +6914,19 @@
         <v>33</v>
       </c>
       <c r="B63" s="1">
-        <f>99.162/0.9569</f>
-        <v>103.6283833211412</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="16"/>
-        <v>11.399122165325531</v>
+        <f t="shared" si="20"/>
+        <v>6.49</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="17"/>
-        <v>2487.0811997073888</v>
+        <f t="shared" si="21"/>
+        <v>1416</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="15"/>
-        <v>273.57893196781276</v>
+        <f t="shared" si="19"/>
+        <v>155.76</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -6339,15 +6938,15 @@
         <v>58.169113329418671</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6.3986024662360537</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1396.0587199060481</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>153.5664591896653</v>
       </c>
     </row>
@@ -6360,15 +6959,15 @@
         <v>114.02424942263281</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:C67" si="18">11%*B65</f>
+        <f t="shared" ref="C65:C67" si="22">11%*B65</f>
         <v>12.542667436489609</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2736.5819861431874</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>301.02401847575061</v>
       </c>
     </row>
@@ -6380,15 +6979,15 @@
         <v>4</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.44</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>96</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>10.56</v>
       </c>
     </row>
@@ -6397,20 +6996,20 @@
         <v>36</v>
       </c>
       <c r="B67" s="1">
-        <f>83.464/14.68</f>
-        <v>5.6855585831062667</v>
+        <f>52.23/5.4931</f>
+        <v>9.5082922211501693</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="18"/>
-        <v>0.62541144414168937</v>
+        <f t="shared" si="22"/>
+        <v>1.0459121443265187</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="17"/>
-        <v>136.45340599455039</v>
+        <f t="shared" si="21"/>
+        <v>228.19901330760405</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="15"/>
-        <v>15.009874659400545</v>
+        <f t="shared" si="19"/>
+        <v>25.101891463836449</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -6426,11 +7025,11 @@
         <v>12.106431302001349</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2641.4031931639306</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>290.55435124803239</v>
       </c>
     </row>
@@ -6443,15 +7042,15 @@
         <v>110.2610996089257</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C74" si="19">11%*B69</f>
+        <f t="shared" ref="C69:C74" si="23">11%*B69</f>
         <v>12.128720956981828</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2646.266390614217</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>291.08930296756387</v>
       </c>
     </row>
@@ -6464,15 +7063,15 @@
         <v>102.28421503533949</v>
       </c>
       <c r="C70" s="1">
+        <f t="shared" si="23"/>
+        <v>11.251263653887344</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="21"/>
+        <v>2454.8211608481479</v>
+      </c>
+      <c r="E70" s="1">
         <f t="shared" si="19"/>
-        <v>11.251263653887344</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="17"/>
-        <v>2454.8211608481479</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="15"/>
         <v>270.03032769329627</v>
       </c>
     </row>
@@ -6485,15 +7084,15 @@
         <v>120.62147616606867</v>
       </c>
       <c r="C71" s="1">
+        <f t="shared" si="23"/>
+        <v>13.268362378267554</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="21"/>
+        <v>2894.9154279856484</v>
+      </c>
+      <c r="E71" s="1">
         <f t="shared" si="19"/>
-        <v>13.268362378267554</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="17"/>
-        <v>2894.9154279856484</v>
-      </c>
-      <c r="E71" s="1">
-        <f t="shared" si="15"/>
         <v>318.44069707842129</v>
       </c>
     </row>
@@ -6506,15 +7105,15 @@
         <v>110.37110054505393</v>
       </c>
       <c r="C72" s="1">
+        <f t="shared" si="23"/>
+        <v>12.140821059955933</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="21"/>
+        <v>2648.9064130812944</v>
+      </c>
+      <c r="E72" s="1">
         <f t="shared" si="19"/>
-        <v>12.140821059955933</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="17"/>
-        <v>2648.9064130812944</v>
-      </c>
-      <c r="E72" s="1">
-        <f t="shared" si="15"/>
         <v>291.37970543894238</v>
       </c>
     </row>
@@ -6527,15 +7126,15 @@
         <v>86.832112567463369</v>
       </c>
       <c r="C73" s="1">
+        <f t="shared" si="23"/>
+        <v>9.5515323824209712</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="21"/>
+        <v>2083.970701619121</v>
+      </c>
+      <c r="E73" s="1">
         <f t="shared" si="19"/>
-        <v>9.5515323824209712</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" si="17"/>
-        <v>2083.970701619121</v>
-      </c>
-      <c r="E73" s="1">
-        <f t="shared" si="15"/>
         <v>229.2367771781033</v>
       </c>
     </row>
@@ -6548,15 +7147,15 @@
         <v>81.794921875</v>
       </c>
       <c r="C74" s="1">
+        <f t="shared" si="23"/>
+        <v>8.9974414062499992</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="21"/>
+        <v>1963.078125</v>
+      </c>
+      <c r="E74" s="1">
         <f t="shared" si="19"/>
-        <v>8.9974414062499992</v>
-      </c>
-      <c r="D74" s="1">
-        <f t="shared" si="17"/>
-        <v>1963.078125</v>
-      </c>
-      <c r="E74" s="1">
-        <f t="shared" si="15"/>
         <v>215.93859375</v>
       </c>
     </row>

--- a/Magisterka/useful.xlsx
+++ b/Magisterka/useful.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="19368" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="19368" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
   <si>
     <t>Związki organiczne</t>
   </si>
@@ -498,11 +498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1431988848"/>
-        <c:axId val="1431987760"/>
+        <c:axId val="165990928"/>
+        <c:axId val="165989840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1431988848"/>
+        <c:axId val="165990928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,12 +590,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431987760"/>
+        <c:crossAx val="165989840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1431987760"/>
+        <c:axId val="165989840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +683,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431988848"/>
+        <c:crossAx val="165990928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,11 +1155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1431994832"/>
-        <c:axId val="1431997008"/>
+        <c:axId val="165993104"/>
+        <c:axId val="586552304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1431994832"/>
+        <c:axId val="165993104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,12 +1272,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431997008"/>
+        <c:crossAx val="586552304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1431997008"/>
+        <c:axId val="586552304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1390,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431994832"/>
+        <c:crossAx val="165993104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2154,11 +2154,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1431982864"/>
-        <c:axId val="1431995376"/>
+        <c:axId val="586553936"/>
+        <c:axId val="586548496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1431982864"/>
+        <c:axId val="586553936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2262,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431995376"/>
+        <c:crossAx val="586548496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2270,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1431995376"/>
+        <c:axId val="586548496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2382,457 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1431982864"/>
+        <c:crossAx val="586553936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> całkowitej degradacji w organiźmie ludzkim</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AN$24:$AN$33</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>W</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BW</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GR1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GR2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GR3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GR4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GR5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GR6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GR7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AO$24:$AO$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.934613554356389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.19926542374975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.89559543230015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.14948075728486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.15499978611447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.13031123054984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.28730427131501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108.79459126382689</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.48334204622059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="586549040"/>
+        <c:axId val="586547952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="586549040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rodzaj rusztowania</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586547952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="586547952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas w dniach</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586549040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2591,6 +3041,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4150,6 +4640,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4746,16 +5739,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4769,6 +5762,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5040,10 +6063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH22" workbookViewId="0">
-      <selection activeCell="AL33" sqref="AH23:AL33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO52" sqref="AO52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5278,6 +6301,10 @@
         <f>59.171/0.4291</f>
         <v>137.89559543230015</v>
       </c>
+      <c r="AM7">
+        <f>AI7/AI8</f>
+        <v>0.92402061207598107</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -5342,6 +6369,10 @@
         <f>99.987/0.67</f>
         <v>149.23432835820893</v>
       </c>
+      <c r="AM8">
+        <f>AI7/AI9</f>
+        <v>2.3418808972267535</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -5608,6 +6639,10 @@
         <f>100/1.6983</f>
         <v>58.882411823588299</v>
       </c>
+      <c r="AM12">
+        <f>(AK12+AL12*2)/3</f>
+        <v>40.925515047563763</v>
+      </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -5681,8 +6716,8 @@
         <v>58.169113329418671</v>
       </c>
       <c r="AM13">
-        <f>AVERAGE(AK13:AL13)</f>
-        <v>35.349208534102701</v>
+        <f>(AK13+AL13*2)/3</f>
+        <v>42.955843465874693</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
@@ -5793,7 +6828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:41" x14ac:dyDescent="0.3">
       <c r="S17" t="s">
         <v>29</v>
       </c>
@@ -5818,7 +6853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:41" x14ac:dyDescent="0.3">
       <c r="AC18" t="s">
         <v>42</v>
       </c>
@@ -5834,7 +6869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:41" x14ac:dyDescent="0.3">
       <c r="W19" t="s">
         <v>46</v>
       </c>
@@ -5856,7 +6891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:41" x14ac:dyDescent="0.3">
       <c r="R20" s="1">
         <f>119.28/2.24</f>
         <v>53.249999999999993</v>
@@ -5877,7 +6912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q21" t="s">
         <v>44</v>
       </c>
@@ -5899,7 +6934,7 @@
         <v>364.0443719412724</v>
       </c>
     </row>
-    <row r="22" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q22" t="s">
         <v>30</v>
       </c>
@@ -5924,7 +6959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>31</v>
       </c>
@@ -5964,7 +6999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>33</v>
       </c>
@@ -6005,8 +7040,14 @@
         <f>AJ24/90</f>
         <v>1.6555555555555554</v>
       </c>
+      <c r="AN24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO24">
+        <v>149</v>
+      </c>
     </row>
-    <row r="25" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q25" t="s">
         <v>32</v>
       </c>
@@ -6034,22 +7075,28 @@
         <v>65</v>
       </c>
       <c r="AI25" s="1">
-        <v>35.349208534102701</v>
+        <v>63</v>
       </c>
       <c r="AJ25" s="1">
-        <f>AI25*$AJ$11</f>
-        <v>44.290097064948469</v>
+        <f t="shared" ref="AJ25:AJ33" si="11">AI25*$AJ$11</f>
+        <v>78.934613554356389</v>
       </c>
       <c r="AK25" s="1">
         <f t="shared" si="10"/>
-        <v>3.1003067945463934</v>
+        <v>5.5254229488049473</v>
       </c>
       <c r="AL25" s="4">
-        <f t="shared" ref="AL25:AL33" si="11">AJ25/90</f>
-        <v>0.49211218961053854</v>
+        <f t="shared" ref="AL25:AL33" si="12">AJ25/90</f>
+        <v>0.87705126171507097</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO25">
+        <v>78.934613554356389</v>
       </c>
     </row>
-    <row r="26" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q26" t="s">
         <v>34</v>
       </c>
@@ -6077,23 +7124,28 @@
         <v>66</v>
       </c>
       <c r="AI26" s="1">
-        <f>AVERAGE(AK12:AL12)</f>
-        <v>31.947066659551496</v>
+        <v>68</v>
       </c>
       <c r="AJ26" s="1">
-        <f>AI26*$AJ$11</f>
-        <v>40.027450174078737</v>
+        <f t="shared" si="11"/>
+        <v>85.19926542374975</v>
       </c>
       <c r="AK26" s="1">
         <f>AJ26*7%</f>
-        <v>2.8019215121855119</v>
+        <v>5.9639485796624827</v>
       </c>
       <c r="AL26" s="4">
-        <f t="shared" si="11"/>
-        <v>0.44474944637865266</v>
+        <f t="shared" si="12"/>
+        <v>0.94665850470833057</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO26">
+        <v>85.19926542374975</v>
       </c>
     </row>
-    <row r="27" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q27" t="s">
         <v>35</v>
       </c>
@@ -6109,11 +7161,11 @@
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27:X29" si="12">R26*24</f>
+        <f t="shared" ref="W27:X29" si="13">R26*24</f>
         <v>2736.5819861431874</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>301.02401847575061</v>
       </c>
       <c r="AH27" t="s">
@@ -6124,18 +7176,24 @@
         <v>110.05846638183044</v>
       </c>
       <c r="AJ27" s="1">
-        <f>AI27*$AJ$11</f>
+        <f t="shared" si="11"/>
         <v>137.89559543230015</v>
       </c>
       <c r="AK27" s="1">
         <v>12.106431302001349</v>
       </c>
       <c r="AL27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5321732825811127</v>
       </c>
+      <c r="AN27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO27">
+        <v>137.89559543230015</v>
+      </c>
     </row>
-    <row r="28" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>36</v>
       </c>
@@ -6152,11 +7210,11 @@
         <v>6.3172873145625183E-2</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.56</v>
       </c>
       <c r="AH28" t="s">
@@ -6167,18 +7225,24 @@
         <v>110.2610996089257</v>
       </c>
       <c r="AJ28" s="1">
-        <f>AI28*$AJ$11</f>
+        <f t="shared" si="11"/>
         <v>138.14948075728486</v>
       </c>
       <c r="AK28" s="1">
         <v>12.128720956981828</v>
       </c>
       <c r="AL28" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5349942306364985</v>
       </c>
+      <c r="AN28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO28">
+        <v>138.14948075728486</v>
+      </c>
     </row>
-    <row r="29" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q29" t="s">
         <v>37</v>
       </c>
@@ -6195,11 +7259,11 @@
         <v>1.2228718486870049</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>136.45340599455039</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15.009874659400545</v>
       </c>
       <c r="AH29" t="s">
@@ -6210,18 +7274,24 @@
         <v>102.28421503533949</v>
       </c>
       <c r="AJ29" s="1">
-        <f>AI29*$AJ$11</f>
+        <f t="shared" si="11"/>
         <v>128.15499978611447</v>
       </c>
       <c r="AK29" s="1">
         <v>11.251263653887344</v>
       </c>
       <c r="AL29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4239444420679386</v>
       </c>
+      <c r="AN29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO29">
+        <v>128.15499978611447</v>
+      </c>
     </row>
-    <row r="30" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>38</v>
       </c>
@@ -6230,7 +7300,7 @@
         <v>110.2610996089257</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" ref="S30:S35" si="13">11%*R30</f>
+        <f t="shared" ref="S30:S35" si="14">11%*R30</f>
         <v>12.128720956981828</v>
       </c>
       <c r="T30" s="2">
@@ -6253,18 +7323,24 @@
         <v>120.62147616606867</v>
       </c>
       <c r="AJ30" s="1">
-        <f>AI30*$AJ$11</f>
+        <f t="shared" si="11"/>
         <v>151.13031123054984</v>
       </c>
       <c r="AK30" s="1">
         <v>13.268362378267554</v>
       </c>
       <c r="AL30" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6792256803394425</v>
       </c>
+      <c r="AN30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO30">
+        <v>151.13031123054984</v>
+      </c>
     </row>
-    <row r="31" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q31" t="s">
         <v>39</v>
       </c>
@@ -6273,7 +7349,7 @@
         <v>102.28421503533949</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.251263653887344</v>
       </c>
       <c r="T31" s="2">
@@ -6281,11 +7357,11 @@
         <v>1.1364912781704388</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ref="W31:X37" si="14">R29*24</f>
+        <f t="shared" ref="W31:X37" si="15">R29*24</f>
         <v>2641.4031931639306</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>290.55435124803239</v>
       </c>
       <c r="Y31">
@@ -6304,18 +7380,24 @@
         <v>110.37110054505393</v>
       </c>
       <c r="AJ31" s="1">
-        <f>AI31*$AJ$11</f>
+        <f t="shared" si="11"/>
         <v>138.28730427131501</v>
       </c>
       <c r="AK31" s="1">
         <v>12.140821059955933</v>
       </c>
       <c r="AL31" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5365256030146113</v>
       </c>
+      <c r="AN31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO31">
+        <v>138.28730427131501</v>
+      </c>
     </row>
-    <row r="32" spans="17:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>40</v>
       </c>
@@ -6324,7 +7406,7 @@
         <v>120.62147616606867</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13.268362378267554</v>
       </c>
       <c r="T32" s="2">
@@ -6332,11 +7414,11 @@
         <v>1.3402386240674298</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2646.266390614217</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>291.08930296756387</v>
       </c>
       <c r="Y32">
@@ -6344,7 +7426,7 @@
         <v>82.205784574468083</v>
       </c>
       <c r="Z32">
-        <f t="shared" ref="Z32:Z37" si="15">11%*Y32</f>
+        <f t="shared" ref="Z32:Z37" si="16">11%*Y32</f>
         <v>9.0426363031914896</v>
       </c>
       <c r="AH32" t="s">
@@ -6355,18 +7437,24 @@
         <v>86.832112567463369</v>
       </c>
       <c r="AJ32" s="1">
-        <f>AI32*$AJ$11</f>
+        <f t="shared" si="11"/>
         <v>108.79459126382689</v>
       </c>
       <c r="AK32" s="1">
         <v>9.5515323824209712</v>
       </c>
       <c r="AL32" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2088287918202987</v>
       </c>
+      <c r="AN32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO32">
+        <v>108.79459126382689</v>
+      </c>
     </row>
-    <row r="33" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q33" t="s">
         <v>41</v>
       </c>
@@ -6375,7 +7463,7 @@
         <v>110.37110054505393</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12.140821059955933</v>
       </c>
       <c r="T33" s="2">
@@ -6383,11 +7471,11 @@
         <v>1.2263455616117105</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2454.8211608481479</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>270.03032769329627</v>
       </c>
       <c r="Y33">
@@ -6395,7 +7483,7 @@
         <v>76.266110982480512</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.3892722080728568</v>
       </c>
       <c r="AH33" t="s">
@@ -6406,18 +7494,24 @@
         <v>81.794921875</v>
       </c>
       <c r="AJ33" s="1">
-        <f>AI33*$AJ$11</f>
+        <f t="shared" si="11"/>
         <v>102.48334204622059</v>
       </c>
       <c r="AK33" s="1">
         <v>8.9974414062499992</v>
       </c>
       <c r="AL33" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1387038005135621</v>
       </c>
+      <c r="AN33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO33">
+        <v>102.48334204622059</v>
+      </c>
     </row>
-    <row r="34" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q34" t="s">
         <v>42</v>
       </c>
@@ -6426,7 +7520,7 @@
         <v>86.832112567463369</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5515323824209712</v>
       </c>
       <c r="T34" s="2">
@@ -6434,11 +7528,11 @@
         <v>0.964801250749593</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2894.9154279856484</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>318.44069707842129</v>
       </c>
       <c r="Y34">
@@ -6446,7 +7540,7 @@
         <v>78.537013401403954</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.6390714741544343</v>
       </c>
       <c r="AN34">
@@ -6454,7 +7548,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="35" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q35" t="s">
         <v>43</v>
       </c>
@@ -6463,7 +7557,7 @@
         <v>81.794921875</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9974414062499992</v>
       </c>
       <c r="T35" s="2">
@@ -6471,11 +7565,11 @@
         <v>0.90883246527777772</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2648.9064130812944</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>291.37970543894238</v>
       </c>
       <c r="Y35">
@@ -6483,17 +7577,17 @@
         <v>78.881431767337801</v>
       </c>
       <c r="Z35">
+        <f t="shared" si="16"/>
+        <v>8.6769574944071586</v>
+      </c>
+    </row>
+    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="W36" s="1">
         <f t="shared" si="15"/>
-        <v>8.6769574944071586</v>
-      </c>
-    </row>
-    <row r="36" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="W36" s="1">
-        <f t="shared" si="14"/>
         <v>2083.970701619121</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>229.2367771781033</v>
       </c>
       <c r="Y36">
@@ -6501,7 +7595,7 @@
         <v>53.03654087022818</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.8340194957250997</v>
       </c>
       <c r="AH36" t="s">
@@ -6520,13 +7614,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
       <c r="W37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1963.078125</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>215.93859375</v>
       </c>
       <c r="Y37">
@@ -6534,7 +7628,7 @@
         <v>41.015082697746166</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5116590967520782</v>
       </c>
       <c r="AH37" t="s">
@@ -6557,49 +7651,49 @@
         <v>1.6555555555555554</v>
       </c>
     </row>
-    <row r="38" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
       <c r="AH38" t="s">
         <v>65</v>
       </c>
       <c r="AI38" s="1">
-        <f t="shared" ref="AI38:AK46" si="16">AI25*24</f>
-        <v>848.38100481846482</v>
+        <f t="shared" ref="AI38:AK46" si="17">AI25*24</f>
+        <v>1512</v>
       </c>
       <c r="AJ38" s="1">
         <f>AJ25*24</f>
-        <v>1062.9623295587633</v>
+        <v>1894.4307253045533</v>
       </c>
       <c r="AK38" s="1">
-        <f t="shared" si="16"/>
-        <v>74.407363069113444</v>
+        <f t="shared" si="17"/>
+        <v>132.61015077131873</v>
       </c>
       <c r="AL38" s="4">
         <f>AJ38/$AN$34</f>
-        <v>0.49211218961053854</v>
+        <v>0.87705126171507097</v>
       </c>
     </row>
-    <row r="39" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
       <c r="AH39" t="s">
         <v>66</v>
       </c>
       <c r="AI39" s="1">
-        <f t="shared" si="16"/>
-        <v>766.72959982923589</v>
+        <f t="shared" si="17"/>
+        <v>1632</v>
       </c>
       <c r="AJ39" s="1">
-        <f t="shared" si="16"/>
-        <v>960.65880417788969</v>
+        <f t="shared" si="17"/>
+        <v>2044.782370169994</v>
       </c>
       <c r="AK39" s="1">
-        <f t="shared" si="16"/>
-        <v>67.246116292452285</v>
+        <f t="shared" si="17"/>
+        <v>143.13476591189959</v>
       </c>
       <c r="AL39" s="4">
-        <f t="shared" ref="AL38:AL46" si="17">AJ39/$AN$34</f>
-        <v>0.44474944637865266</v>
+        <f t="shared" ref="AL39:AL46" si="18">AJ39/$AN$34</f>
+        <v>0.94665850470833057</v>
       </c>
     </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -6610,23 +7704,23 @@
         <v>37</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2641.4031931639306</v>
       </c>
       <c r="AJ40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3309.4942903752035</v>
       </c>
       <c r="AK40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>290.55435124803239</v>
       </c>
       <c r="AL40" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.5321732825811127</v>
       </c>
     </row>
-    <row r="41" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>1</v>
       </c>
@@ -6637,23 +7731,23 @@
         <v>38</v>
       </c>
       <c r="AI41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2646.266390614217</v>
       </c>
       <c r="AJ41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3315.5875381748365</v>
       </c>
       <c r="AK41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>291.08930296756387</v>
       </c>
       <c r="AL41" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.5349942306364983</v>
       </c>
     </row>
-    <row r="42" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -6664,23 +7758,23 @@
         <v>39</v>
       </c>
       <c r="AI42" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2454.8211608481479</v>
       </c>
       <c r="AJ42" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3075.7199948667476</v>
       </c>
       <c r="AK42" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>270.03032769329627</v>
       </c>
       <c r="AL42" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4239444420679388</v>
       </c>
     </row>
-    <row r="43" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -6691,23 +7785,23 @@
         <v>40</v>
       </c>
       <c r="AI43" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2894.9154279856484</v>
       </c>
       <c r="AJ43" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3627.1274695331958</v>
       </c>
       <c r="AK43" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>318.44069707842129</v>
       </c>
       <c r="AL43" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.6792256803394425</v>
       </c>
     </row>
-    <row r="44" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -6718,89 +7812,128 @@
         <v>41</v>
       </c>
       <c r="AI44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2648.9064130812944</v>
       </c>
       <c r="AJ44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3318.8953025115602</v>
       </c>
       <c r="AK44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>291.37970543894238</v>
       </c>
       <c r="AL44" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.5365256030146113</v>
       </c>
     </row>
-    <row r="45" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:41" x14ac:dyDescent="0.3">
       <c r="AH45" t="s">
         <v>42</v>
       </c>
       <c r="AI45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2083.970701619121</v>
       </c>
       <c r="AJ45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2611.0701903318454</v>
       </c>
       <c r="AK45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>229.2367771781033</v>
       </c>
       <c r="AL45" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2088287918202989</v>
       </c>
     </row>
-    <row r="46" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:41" x14ac:dyDescent="0.3">
       <c r="AH46" t="s">
         <v>43</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1963.078125</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2459.6002091092942</v>
       </c>
       <c r="AK46" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>215.93859375</v>
       </c>
       <c r="AL46" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1387038005135621</v>
       </c>
+      <c r="AO46">
+        <v>75.8</v>
+      </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AN47">
+        <v>82</v>
+      </c>
+      <c r="AO47">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AN48">
+        <v>8.5</v>
+      </c>
+      <c r="AO48">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
       <c r="D49">
         <v>33</v>
       </c>
+      <c r="AN49">
+        <v>1.367</v>
+      </c>
+      <c r="AO49">
+        <v>8.4000000000000005E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50">
         <v>39</v>
       </c>
+      <c r="AN50">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AO50">
+        <v>16.84</v>
+      </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51">
         <v>9.8000000000000007</v>
       </c>
+      <c r="AN51">
+        <f>SUM(AN47:AN50)</f>
+        <v>91.913000000000011</v>
+      </c>
+      <c r="AO51">
+        <f>SUM(AO46:AO50)</f>
+        <v>102.38400000000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -6808,7 +7941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -6816,7 +7949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -6824,7 +7957,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -6832,7 +7965,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -6849,7 +7982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <f>119.28/2.24</f>
         <v>53.249999999999993</v>
@@ -6867,7 +8000,7 @@
         <v>140.57999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -6876,7 +8009,7 @@
         <v>137.89559543230015</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61" si="18">11%*B61</f>
+        <f t="shared" ref="C61" si="19">11%*B61</f>
         <v>15.168515497553017</v>
       </c>
       <c r="D61" s="1">
@@ -6884,11 +8017,11 @@
         <v>3309.4942903752035</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E74" si="19">C61*24</f>
+        <f t="shared" ref="E61:E74" si="20">C61*24</f>
         <v>364.0443719412724</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -6897,19 +8030,19 @@
         <v>149.23432835820893</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ref="C62:C64" si="20">11%*B62</f>
+        <f t="shared" ref="C62:C64" si="21">11%*B62</f>
         <v>16.415776119402981</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:D74" si="21">B62*24</f>
+        <f t="shared" ref="D62:D74" si="22">B62*24</f>
         <v>3581.6238805970142</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>393.97862686567157</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -6917,19 +8050,19 @@
         <v>59</v>
       </c>
       <c r="C63" s="1">
+        <f t="shared" si="21"/>
+        <v>6.49</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="22"/>
+        <v>1416</v>
+      </c>
+      <c r="E63" s="1">
         <f t="shared" si="20"/>
-        <v>6.49</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="21"/>
-        <v>1416</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="19"/>
         <v>155.76</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -6938,15 +8071,15 @@
         <v>58.169113329418671</v>
       </c>
       <c r="C64" s="1">
+        <f t="shared" si="21"/>
+        <v>6.3986024662360537</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="22"/>
+        <v>1396.0587199060481</v>
+      </c>
+      <c r="E64" s="1">
         <f t="shared" si="20"/>
-        <v>6.3986024662360537</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="21"/>
-        <v>1396.0587199060481</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="19"/>
         <v>153.5664591896653</v>
       </c>
     </row>
@@ -6959,15 +8092,15 @@
         <v>114.02424942263281</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:C67" si="22">11%*B65</f>
+        <f t="shared" ref="C65:C67" si="23">11%*B65</f>
         <v>12.542667436489609</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2736.5819861431874</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>301.02401847575061</v>
       </c>
     </row>
@@ -6979,15 +8112,15 @@
         <v>4</v>
       </c>
       <c r="C66" s="1">
+        <f t="shared" si="23"/>
+        <v>0.44</v>
+      </c>
+      <c r="D66" s="1">
         <f t="shared" si="22"/>
-        <v>0.44</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="21"/>
         <v>96</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10.56</v>
       </c>
     </row>
@@ -7000,15 +8133,15 @@
         <v>9.5082922211501693</v>
       </c>
       <c r="C67" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0459121443265187</v>
+      </c>
+      <c r="D67" s="1">
         <f t="shared" si="22"/>
-        <v>1.0459121443265187</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" si="21"/>
         <v>228.19901330760405</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25.101891463836449</v>
       </c>
     </row>
@@ -7025,11 +8158,11 @@
         <v>12.106431302001349</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2641.4031931639306</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>290.55435124803239</v>
       </c>
     </row>
@@ -7042,15 +8175,15 @@
         <v>110.2610996089257</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C74" si="23">11%*B69</f>
+        <f t="shared" ref="C69:C74" si="24">11%*B69</f>
         <v>12.128720956981828</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2646.266390614217</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>291.08930296756387</v>
       </c>
     </row>
@@ -7063,15 +8196,15 @@
         <v>102.28421503533949</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.251263653887344</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2454.8211608481479</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>270.03032769329627</v>
       </c>
     </row>
@@ -7084,15 +8217,15 @@
         <v>120.62147616606867</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13.268362378267554</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2894.9154279856484</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>318.44069707842129</v>
       </c>
     </row>
@@ -7105,15 +8238,15 @@
         <v>110.37110054505393</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12.140821059955933</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2648.9064130812944</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>291.37970543894238</v>
       </c>
     </row>
@@ -7126,15 +8259,15 @@
         <v>86.832112567463369</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.5515323824209712</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2083.970701619121</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>229.2367771781033</v>
       </c>
     </row>
@@ -7147,15 +8280,15 @@
         <v>81.794921875</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.9974414062499992</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1963.078125</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>215.93859375</v>
       </c>
     </row>

--- a/Magisterka/useful.xlsx
+++ b/Magisterka/useful.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="19368" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="19368" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,11 +498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165990928"/>
-        <c:axId val="165989840"/>
+        <c:axId val="-776515920"/>
+        <c:axId val="-776530064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165990928"/>
+        <c:axId val="-776515920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,12 +590,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165989840"/>
+        <c:crossAx val="-776530064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165989840"/>
+        <c:axId val="-776530064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +683,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165990928"/>
+        <c:crossAx val="-776515920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,11 +1155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165993104"/>
-        <c:axId val="586552304"/>
+        <c:axId val="-776526256"/>
+        <c:axId val="-776522992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165993104"/>
+        <c:axId val="-776526256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,12 +1272,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586552304"/>
+        <c:crossAx val="-776522992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586552304"/>
+        <c:axId val="-776522992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1390,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165993104"/>
+        <c:crossAx val="-776526256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2154,11 +2154,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="586553936"/>
-        <c:axId val="586548496"/>
+        <c:axId val="-776520272"/>
+        <c:axId val="-776524624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="586553936"/>
+        <c:axId val="-776520272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2262,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586548496"/>
+        <c:crossAx val="-776524624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2270,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="586548496"/>
+        <c:axId val="-776524624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2382,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586553936"/>
+        <c:crossAx val="-776520272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,11 +2614,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="586549040"/>
-        <c:axId val="586547952"/>
+        <c:axId val="-776529520"/>
+        <c:axId val="-776523536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="586549040"/>
+        <c:axId val="-776529520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2717,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586547952"/>
+        <c:crossAx val="-776523536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2725,7 +2725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="586547952"/>
+        <c:axId val="-776523536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +2832,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586549040"/>
+        <c:crossAx val="-776529520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5769,16 +5769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6063,10 +6063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AQ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO52" sqref="AO52"/>
+    <sheetView tabSelected="1" topLeftCell="AL26" workbookViewId="0">
+      <selection activeCell="AQ50" sqref="AQ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7454,7 +7454,7 @@
         <v>108.79459126382689</v>
       </c>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:43" x14ac:dyDescent="0.3">
       <c r="Q33" t="s">
         <v>41</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>102.48334204622059</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.3">
       <c r="Q34" t="s">
         <v>42</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.3">
       <c r="Q35" t="s">
         <v>43</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>8.6769574944071586</v>
       </c>
     </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.3">
       <c r="W36" s="1">
         <f t="shared" si="15"/>
         <v>2083.970701619121</v>
@@ -7614,7 +7614,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.3">
       <c r="W37" s="1">
         <f t="shared" si="15"/>
         <v>1963.078125</v>
@@ -7651,7 +7651,7 @@
         <v>1.6555555555555554</v>
       </c>
     </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.3">
       <c r="AH38" t="s">
         <v>65</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0.87705126171507097</v>
       </c>
     </row>
-    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:43" x14ac:dyDescent="0.3">
       <c r="AH39" t="s">
         <v>66</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0.94665850470833057</v>
       </c>
     </row>
-    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>1.5321732825811127</v>
       </c>
     </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:43" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>1</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>1.5349942306364983</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:43" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>1.4239444420679388</v>
       </c>
     </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:43" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>3</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>1.6792256803394425</v>
       </c>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:43" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>4</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>1.5365256030146113</v>
       </c>
     </row>
-    <row r="45" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:43" x14ac:dyDescent="0.3">
       <c r="AH45" t="s">
         <v>42</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>1.2088287918202989</v>
       </c>
     </row>
-    <row r="46" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:43" x14ac:dyDescent="0.3">
       <c r="AH46" t="s">
         <v>43</v>
       </c>
@@ -7869,27 +7869,51 @@
         <f t="shared" si="18"/>
         <v>1.1387038005135621</v>
       </c>
-      <c r="AO46">
+      <c r="AO46" s="4">
+        <f>AN46*100/$AN$51</f>
+        <v>0</v>
+      </c>
+      <c r="AP46">
         <v>75.8</v>
       </c>
+      <c r="AQ46" s="4">
+        <f>AP46*100/$AP$51</f>
+        <v>74.035005469604613</v>
+      </c>
     </row>
-    <row r="47" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:43" x14ac:dyDescent="0.3">
       <c r="AN47">
         <v>82</v>
       </c>
-      <c r="AO47">
+      <c r="AO47" s="4">
+        <f t="shared" ref="AO47:AO50" si="19">AN47*100/$AN$51</f>
+        <v>89.214800953075184</v>
+      </c>
+      <c r="AP47">
         <v>8.4</v>
       </c>
+      <c r="AQ47" s="4">
+        <f t="shared" ref="AQ47:AQ50" si="20">AP47*100/$AP$51</f>
+        <v>8.2044069385841532</v>
+      </c>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:43" x14ac:dyDescent="0.3">
       <c r="AN48">
         <v>8.5</v>
       </c>
-      <c r="AO48">
+      <c r="AO48" s="4">
+        <f t="shared" si="19"/>
+        <v>9.2478757085504757</v>
+      </c>
+      <c r="AP48">
         <v>1.26</v>
       </c>
+      <c r="AQ48" s="4">
+        <f t="shared" si="20"/>
+        <v>1.2306610407876228</v>
+      </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -7899,11 +7923,19 @@
       <c r="AN49">
         <v>1.367</v>
       </c>
-      <c r="AO49">
+      <c r="AO49" s="4">
+        <f t="shared" si="19"/>
+        <v>1.4872760110104117</v>
+      </c>
+      <c r="AP49">
         <v>8.4000000000000005E-2</v>
       </c>
+      <c r="AQ49" s="4">
+        <f t="shared" si="20"/>
+        <v>8.2044069385841523E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>1</v>
       </c>
@@ -7913,11 +7945,19 @@
       <c r="AN50">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AO50">
+      <c r="AO50" s="4">
+        <f t="shared" si="19"/>
+        <v>5.0047327363920216E-2</v>
+      </c>
+      <c r="AP50">
         <v>16.84</v>
       </c>
+      <c r="AQ50" s="4">
+        <f t="shared" si="20"/>
+        <v>16.447882481637752</v>
+      </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>5</v>
       </c>
@@ -7929,19 +7969,31 @@
         <v>91.913000000000011</v>
       </c>
       <c r="AO51">
-        <f>SUM(AO46:AO50)</f>
+        <f>AN51*100/$AN$51</f>
+        <v>100</v>
+      </c>
+      <c r="AP51">
+        <f>SUM(AP46:AP50)</f>
         <v>102.38400000000001</v>
       </c>
+      <c r="AQ51" s="4">
+        <f>AP51*100/$AP$51</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52">
         <v>17</v>
       </c>
+      <c r="AQ52" s="4">
+        <f>SUM(AQ46:AQ50)</f>
+        <v>99.999999999999986</v>
+      </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -7949,7 +8001,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -7957,7 +8009,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -7965,7 +8017,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -7982,7 +8034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <f>119.28/2.24</f>
         <v>53.249999999999993</v>
@@ -8000,7 +8052,7 @@
         <v>140.57999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -8009,7 +8061,7 @@
         <v>137.89559543230015</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61" si="19">11%*B61</f>
+        <f t="shared" ref="C61" si="21">11%*B61</f>
         <v>15.168515497553017</v>
       </c>
       <c r="D61" s="1">
@@ -8017,11 +8069,11 @@
         <v>3309.4942903752035</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" ref="E61:E74" si="20">C61*24</f>
+        <f t="shared" ref="E61:E74" si="22">C61*24</f>
         <v>364.0443719412724</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -8030,19 +8082,19 @@
         <v>149.23432835820893</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ref="C62:C64" si="21">11%*B62</f>
+        <f t="shared" ref="C62:C64" si="23">11%*B62</f>
         <v>16.415776119402981</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:D74" si="22">B62*24</f>
+        <f t="shared" ref="D62:D74" si="24">B62*24</f>
         <v>3581.6238805970142</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>393.97862686567157</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -8050,19 +8102,19 @@
         <v>59</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.49</v>
       </c>
       <c r="D63" s="1">
+        <f t="shared" si="24"/>
+        <v>1416</v>
+      </c>
+      <c r="E63" s="1">
         <f t="shared" si="22"/>
-        <v>1416</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="20"/>
         <v>155.76</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>32</v>
       </c>
@@ -8071,15 +8123,15 @@
         <v>58.169113329418671</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.3986024662360537</v>
       </c>
       <c r="D64" s="1">
+        <f t="shared" si="24"/>
+        <v>1396.0587199060481</v>
+      </c>
+      <c r="E64" s="1">
         <f t="shared" si="22"/>
-        <v>1396.0587199060481</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="20"/>
         <v>153.5664591896653</v>
       </c>
     </row>
@@ -8092,15 +8144,15 @@
         <v>114.02424942263281</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:C67" si="23">11%*B65</f>
+        <f t="shared" ref="C65:C67" si="25">11%*B65</f>
         <v>12.542667436489609</v>
       </c>
       <c r="D65" s="1">
+        <f t="shared" si="24"/>
+        <v>2736.5819861431874</v>
+      </c>
+      <c r="E65" s="1">
         <f t="shared" si="22"/>
-        <v>2736.5819861431874</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="20"/>
         <v>301.02401847575061</v>
       </c>
     </row>
@@ -8112,15 +8164,15 @@
         <v>4</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.44</v>
       </c>
       <c r="D66" s="1">
+        <f t="shared" si="24"/>
+        <v>96</v>
+      </c>
+      <c r="E66" s="1">
         <f t="shared" si="22"/>
-        <v>96</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="20"/>
         <v>10.56</v>
       </c>
     </row>
@@ -8133,15 +8185,15 @@
         <v>9.5082922211501693</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0459121443265187</v>
       </c>
       <c r="D67" s="1">
+        <f t="shared" si="24"/>
+        <v>228.19901330760405</v>
+      </c>
+      <c r="E67" s="1">
         <f t="shared" si="22"/>
-        <v>228.19901330760405</v>
-      </c>
-      <c r="E67" s="1">
-        <f t="shared" si="20"/>
         <v>25.101891463836449</v>
       </c>
     </row>
@@ -8158,11 +8210,11 @@
         <v>12.106431302001349</v>
       </c>
       <c r="D68" s="1">
+        <f t="shared" si="24"/>
+        <v>2641.4031931639306</v>
+      </c>
+      <c r="E68" s="1">
         <f t="shared" si="22"/>
-        <v>2641.4031931639306</v>
-      </c>
-      <c r="E68" s="1">
-        <f t="shared" si="20"/>
         <v>290.55435124803239</v>
       </c>
     </row>
@@ -8175,15 +8227,15 @@
         <v>110.2610996089257</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C74" si="24">11%*B69</f>
+        <f t="shared" ref="C69:C74" si="26">11%*B69</f>
         <v>12.128720956981828</v>
       </c>
       <c r="D69" s="1">
+        <f t="shared" si="24"/>
+        <v>2646.266390614217</v>
+      </c>
+      <c r="E69" s="1">
         <f t="shared" si="22"/>
-        <v>2646.266390614217</v>
-      </c>
-      <c r="E69" s="1">
-        <f t="shared" si="20"/>
         <v>291.08930296756387</v>
       </c>
     </row>
@@ -8196,15 +8248,15 @@
         <v>102.28421503533949</v>
       </c>
       <c r="C70" s="1">
+        <f t="shared" si="26"/>
+        <v>11.251263653887344</v>
+      </c>
+      <c r="D70" s="1">
         <f t="shared" si="24"/>
-        <v>11.251263653887344</v>
-      </c>
-      <c r="D70" s="1">
+        <v>2454.8211608481479</v>
+      </c>
+      <c r="E70" s="1">
         <f t="shared" si="22"/>
-        <v>2454.8211608481479</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="20"/>
         <v>270.03032769329627</v>
       </c>
     </row>
@@ -8217,15 +8269,15 @@
         <v>120.62147616606867</v>
       </c>
       <c r="C71" s="1">
+        <f t="shared" si="26"/>
+        <v>13.268362378267554</v>
+      </c>
+      <c r="D71" s="1">
         <f t="shared" si="24"/>
-        <v>13.268362378267554</v>
-      </c>
-      <c r="D71" s="1">
+        <v>2894.9154279856484</v>
+      </c>
+      <c r="E71" s="1">
         <f t="shared" si="22"/>
-        <v>2894.9154279856484</v>
-      </c>
-      <c r="E71" s="1">
-        <f t="shared" si="20"/>
         <v>318.44069707842129</v>
       </c>
     </row>
@@ -8238,15 +8290,15 @@
         <v>110.37110054505393</v>
       </c>
       <c r="C72" s="1">
+        <f t="shared" si="26"/>
+        <v>12.140821059955933</v>
+      </c>
+      <c r="D72" s="1">
         <f t="shared" si="24"/>
-        <v>12.140821059955933</v>
-      </c>
-      <c r="D72" s="1">
+        <v>2648.9064130812944</v>
+      </c>
+      <c r="E72" s="1">
         <f t="shared" si="22"/>
-        <v>2648.9064130812944</v>
-      </c>
-      <c r="E72" s="1">
-        <f t="shared" si="20"/>
         <v>291.37970543894238</v>
       </c>
     </row>
@@ -8259,15 +8311,15 @@
         <v>86.832112567463369</v>
       </c>
       <c r="C73" s="1">
+        <f t="shared" si="26"/>
+        <v>9.5515323824209712</v>
+      </c>
+      <c r="D73" s="1">
         <f t="shared" si="24"/>
-        <v>9.5515323824209712</v>
-      </c>
-      <c r="D73" s="1">
+        <v>2083.970701619121</v>
+      </c>
+      <c r="E73" s="1">
         <f t="shared" si="22"/>
-        <v>2083.970701619121</v>
-      </c>
-      <c r="E73" s="1">
-        <f t="shared" si="20"/>
         <v>229.2367771781033</v>
       </c>
     </row>
@@ -8280,15 +8332,15 @@
         <v>81.794921875</v>
       </c>
       <c r="C74" s="1">
+        <f t="shared" si="26"/>
+        <v>8.9974414062499992</v>
+      </c>
+      <c r="D74" s="1">
         <f t="shared" si="24"/>
-        <v>8.9974414062499992</v>
-      </c>
-      <c r="D74" s="1">
+        <v>1963.078125</v>
+      </c>
+      <c r="E74" s="1">
         <f t="shared" si="22"/>
-        <v>1963.078125</v>
-      </c>
-      <c r="E74" s="1">
-        <f t="shared" si="20"/>
         <v>215.93859375</v>
       </c>
     </row>

--- a/Magisterka/useful.xlsx
+++ b/Magisterka/useful.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="19368" windowHeight="10632"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="19368" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,11 +498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-776515920"/>
-        <c:axId val="-776530064"/>
+        <c:axId val="23249296"/>
+        <c:axId val="23257456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-776515920"/>
+        <c:axId val="23249296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,12 +590,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776530064"/>
+        <c:crossAx val="23257456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-776530064"/>
+        <c:axId val="23257456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +683,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776515920"/>
+        <c:crossAx val="23249296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1155,11 +1155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-776526256"/>
-        <c:axId val="-776522992"/>
+        <c:axId val="192899872"/>
+        <c:axId val="192904768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-776526256"/>
+        <c:axId val="192899872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,12 +1272,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776522992"/>
+        <c:crossAx val="192904768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-776522992"/>
+        <c:axId val="192904768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1390,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776526256"/>
+        <c:crossAx val="192899872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2154,11 +2154,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-776520272"/>
-        <c:axId val="-776524624"/>
+        <c:axId val="192906944"/>
+        <c:axId val="192909664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-776520272"/>
+        <c:axId val="192906944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2262,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776524624"/>
+        <c:crossAx val="192909664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2270,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-776524624"/>
+        <c:axId val="192909664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,7 +2382,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776520272"/>
+        <c:crossAx val="192906944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2574,10 +2574,10 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.934613554356389</c:v>
+                  <c:v>124.0401070139886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.19926542374975</c:v>
+                  <c:v>41.346702337996199</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>137.89559543230015</c:v>
@@ -2614,11 +2614,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-776529520"/>
-        <c:axId val="-776523536"/>
+        <c:axId val="194543968"/>
+        <c:axId val="194552672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-776529520"/>
+        <c:axId val="194543968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2717,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776523536"/>
+        <c:crossAx val="194552672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2725,7 +2725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-776523536"/>
+        <c:axId val="194552672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,7 +2801,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2832,7 +2832,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-776529520"/>
+        <c:crossAx val="194543968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5739,16 +5739,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5769,16 +5769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6065,8 +6065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL26" workbookViewId="0">
-      <selection activeCell="AQ50" sqref="AQ50"/>
+    <sheetView tabSelected="1" topLeftCell="U21" workbookViewId="0">
+      <selection activeCell="AI38" sqref="AI38:AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6352,6 +6352,10 @@
       <c r="U8">
         <v>580</v>
       </c>
+      <c r="AA8">
+        <f>AD7/AD10</f>
+        <v>1.3087946565214332</v>
+      </c>
       <c r="AC8" t="s">
         <v>33</v>
       </c>
@@ -6361,6 +6365,10 @@
       <c r="AE8" s="3">
         <f t="shared" ref="AE8:AE19" si="6">($AD$6-AD8)/$AD$6</f>
         <v>0.57214006861469302</v>
+      </c>
+      <c r="AF8">
+        <f>AD7/AD8</f>
+        <v>2.529395395901846</v>
       </c>
       <c r="AH8" t="s">
         <v>31</v>
@@ -6420,6 +6428,14 @@
       <c r="T9">
         <v>628</v>
       </c>
+      <c r="AA9">
+        <f>AD8/AD11</f>
+        <v>14.75</v>
+      </c>
+      <c r="AB9">
+        <f>AA9*AF10</f>
+        <v>19.304721183691139</v>
+      </c>
       <c r="AC9" t="s">
         <v>32</v>
       </c>
@@ -6485,6 +6501,14 @@
       <c r="T10">
         <v>620</v>
       </c>
+      <c r="AA10">
+        <f>AD9/AD12</f>
+        <v>5.8169113329418671</v>
+      </c>
+      <c r="AB10">
+        <f>AA10*AF10</f>
+        <v>7.6131424700132833</v>
+      </c>
       <c r="AC10" t="s">
         <v>34</v>
       </c>
@@ -6495,6 +6519,14 @@
       <c r="AE10" s="3">
         <f t="shared" si="6"/>
         <v>0.17311173670798635</v>
+      </c>
+      <c r="AF10">
+        <f>AD7/AD10</f>
+        <v>1.3087946565214332</v>
+      </c>
+      <c r="AG10">
+        <f>AD10/AD11</f>
+        <v>28.506062355658202</v>
       </c>
       <c r="AH10" t="s">
         <v>32</v>
@@ -7075,25 +7107,25 @@
         <v>65</v>
       </c>
       <c r="AI25" s="1">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AJ25" s="1">
         <f t="shared" ref="AJ25:AJ33" si="11">AI25*$AJ$11</f>
-        <v>78.934613554356389</v>
+        <v>106.49908177968719</v>
       </c>
       <c r="AK25" s="1">
         <f t="shared" si="10"/>
-        <v>5.5254229488049473</v>
+        <v>7.4549357245781041</v>
       </c>
       <c r="AL25" s="4">
         <f t="shared" ref="AL25:AL33" si="12">AJ25/90</f>
-        <v>0.87705126171507097</v>
+        <v>1.1833231308854133</v>
       </c>
       <c r="AN25" t="s">
         <v>65</v>
       </c>
       <c r="AO25">
-        <v>78.934613554356389</v>
+        <v>124.0401070139886</v>
       </c>
     </row>
     <row r="26" spans="17:41" x14ac:dyDescent="0.3">
@@ -7124,25 +7156,25 @@
         <v>66</v>
       </c>
       <c r="AI26" s="1">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="AJ26" s="1">
         <f t="shared" si="11"/>
-        <v>85.19926542374975</v>
+        <v>41.346702337996199</v>
       </c>
       <c r="AK26" s="1">
         <f>AJ26*7%</f>
-        <v>5.9639485796624827</v>
+        <v>2.8942691636597342</v>
       </c>
       <c r="AL26" s="4">
         <f t="shared" si="12"/>
-        <v>0.94665850470833057</v>
+        <v>0.45940780375551332</v>
       </c>
       <c r="AN26" t="s">
         <v>66</v>
       </c>
       <c r="AO26">
-        <v>85.19926542374975</v>
+        <v>41.346702337996199</v>
       </c>
     </row>
     <row r="27" spans="17:41" x14ac:dyDescent="0.3">
@@ -7657,19 +7689,19 @@
       </c>
       <c r="AI38" s="1">
         <f t="shared" ref="AI38:AK46" si="17">AI25*24</f>
-        <v>1512</v>
+        <v>2040</v>
       </c>
       <c r="AJ38" s="1">
         <f>AJ25*24</f>
-        <v>1894.4307253045533</v>
+        <v>2555.9779627124926</v>
       </c>
       <c r="AK38" s="1">
         <f t="shared" si="17"/>
-        <v>132.61015077131873</v>
+        <v>178.9184573898745</v>
       </c>
       <c r="AL38" s="4">
         <f>AJ38/$AN$34</f>
-        <v>0.87705126171507097</v>
+        <v>1.1833231308854133</v>
       </c>
     </row>
     <row r="39" spans="3:43" x14ac:dyDescent="0.3">
@@ -7678,19 +7710,19 @@
       </c>
       <c r="AI39" s="1">
         <f t="shared" si="17"/>
-        <v>1632</v>
+        <v>792</v>
       </c>
       <c r="AJ39" s="1">
         <f t="shared" si="17"/>
-        <v>2044.782370169994</v>
+        <v>992.32085611190882</v>
       </c>
       <c r="AK39" s="1">
         <f t="shared" si="17"/>
-        <v>143.13476591189959</v>
+        <v>69.462459927833621</v>
       </c>
       <c r="AL39" s="4">
         <f t="shared" ref="AL39:AL46" si="18">AJ39/$AN$34</f>
-        <v>0.94665850470833057</v>
+        <v>0.45940780375551332</v>
       </c>
     </row>
     <row r="40" spans="3:43" x14ac:dyDescent="0.3">
